--- a/data/common/excel/public_category_manual.xlsx
+++ b/data/common/excel/public_category_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA38D7CE-533B-4C24-B286-773E71FD810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483DA30-3E11-4340-AF72-7545A32B5046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>SKU</t>
   </si>
@@ -87,9 +87,6 @@
     <t>LAMPARAS DECORATIVAS</t>
   </si>
   <si>
-    <t>VENTILADORES LED Y APARATOS ELECTRONICOS</t>
-  </si>
-  <si>
     <t>DOWNLIGHTS Y PLAFONES LED</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>MATERIAL ELECTRICO</t>
-  </si>
-  <si>
-    <t>FOCOS DE CARRIL LED Y ACCESORIOS</t>
   </si>
   <si>
     <t>APLIQUES Y AROS LED</t>
@@ -333,7 +327,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,7 +369,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -709,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF40A98-2910-49B0-BB76-BAF76F0B7575}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,9 +774,7 @@
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="14">
         <v>579</v>
       </c>
@@ -792,9 +783,7 @@
       <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="15">
         <v>6269</v>
       </c>
@@ -803,9 +792,7 @@
       <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="11">
         <v>6283</v>
       </c>
@@ -814,9 +801,7 @@
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="11">
         <v>6416</v>
       </c>
@@ -825,53 +810,43 @@
       <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="11">
         <v>6614</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="11">
         <v>6907</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="11">
         <v>6916</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="11">
         <v>6919</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="11">
         <v>6932</v>
       </c>
@@ -880,20 +855,16 @@
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="11">
         <v>7085</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="11">
         <v>7166</v>
       </c>
@@ -902,9 +873,7 @@
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="11">
         <v>7307</v>
       </c>
@@ -913,9 +882,7 @@
       <c r="A19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>5</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="11">
         <v>7745</v>
       </c>
@@ -924,31 +891,25 @@
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="11">
         <v>7814</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="11">
         <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="11">
         <v>783</v>
       </c>
@@ -957,9 +918,7 @@
       <c r="A23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="11">
         <v>8036</v>
       </c>
@@ -968,9 +927,7 @@
       <c r="A24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="11">
         <v>8037</v>
       </c>
@@ -979,9 +936,7 @@
       <c r="A25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="11">
         <v>8072</v>
       </c>
@@ -990,53 +945,43 @@
       <c r="A26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B26" s="8"/>
       <c r="C26" s="11">
         <v>8119</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="11">
         <v>8229</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="11">
         <v>8230</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="11">
         <v>8231</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="11">
         <v>8241</v>
       </c>
@@ -1045,9 +990,7 @@
       <c r="A31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="11">
         <v>8355</v>
       </c>
@@ -1056,9 +999,7 @@
       <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="11">
         <v>8359</v>
       </c>
@@ -1067,9 +1008,7 @@
       <c r="A33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="11">
         <v>8445</v>
       </c>
@@ -1078,9 +1017,7 @@
       <c r="A34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>5</v>
-      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="11">
         <v>8471</v>
       </c>
@@ -1089,9 +1026,7 @@
       <c r="A35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>5</v>
-      </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="11">
         <v>8472</v>
       </c>
@@ -1100,20 +1035,16 @@
       <c r="A36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="11">
         <v>8518</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="11">
         <v>8621</v>
       </c>
@@ -1122,9 +1053,7 @@
       <c r="A38" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="B38" s="8"/>
       <c r="C38" s="11">
         <v>9107</v>
       </c>
@@ -1133,9 +1062,7 @@
       <c r="A39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="11">
         <v>9550</v>
       </c>
@@ -1144,20 +1071,16 @@
       <c r="A40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="11">
         <v>9711</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B41" s="8"/>
       <c r="C41" s="11">
         <v>9889</v>
       </c>
@@ -1166,9 +1089,7 @@
       <c r="A42" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="8"/>
       <c r="C42" s="11">
         <v>99562</v>
       </c>
@@ -1177,9 +1098,7 @@
       <c r="A43" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="8"/>
       <c r="C43" s="11">
         <v>99572</v>
       </c>
@@ -1188,9 +1107,7 @@
       <c r="A44" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B44" s="8"/>
       <c r="C44" s="11">
         <v>9968</v>
       </c>
@@ -1199,9 +1116,7 @@
       <c r="A45" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B45" s="8"/>
       <c r="C45" s="11">
         <v>100025</v>
       </c>
@@ -1210,9 +1125,7 @@
       <c r="A46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B46" s="8"/>
       <c r="C46" s="11">
         <v>100067</v>
       </c>
@@ -1221,163 +1134,133 @@
       <c r="A47" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>5</v>
-      </c>
+      <c r="B47" s="8"/>
       <c r="C47" s="11">
         <v>10186</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B48" s="8"/>
       <c r="C48" s="11">
         <v>1078</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B49" s="8"/>
       <c r="C49" s="11">
         <v>1079</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B50" s="8"/>
       <c r="C50" s="11">
         <v>111258</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="11">
         <v>11136</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="26" t="s">
         <v>18</v>
       </c>
+      <c r="B52" s="8"/>
       <c r="C52" s="11">
         <v>11140</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="11">
         <v>11147</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B54" s="8"/>
       <c r="C54" s="11">
         <v>11148</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B55" s="8"/>
       <c r="C55" s="11">
         <v>11149</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B56" s="8"/>
       <c r="C56" s="11">
         <v>11151</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B57" s="8"/>
       <c r="C57" s="11">
         <v>11152</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="B58" s="8"/>
       <c r="C58" s="11">
         <v>11155</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B59" s="8"/>
       <c r="C59" s="11">
         <v>11220</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B60" s="8"/>
       <c r="C60" s="11">
         <v>11225</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B61" s="8"/>
       <c r="C61" s="11">
         <v>11241</v>
       </c>
@@ -1386,82 +1269,68 @@
       <c r="A62" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B62" s="8"/>
       <c r="C62" s="11">
         <v>11272</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B63" s="8"/>
       <c r="C63" s="11">
         <v>11364</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B64" s="8"/>
       <c r="C64" s="11">
         <v>11365</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B65" s="8"/>
       <c r="C65" s="11">
         <v>11558</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B66" s="8"/>
       <c r="C66" s="11">
         <v>11559</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B67" s="8"/>
       <c r="C67" s="11">
         <v>11739</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B68" s="8"/>
       <c r="C68" s="11">
         <v>11746</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="11">
@@ -1470,7 +1339,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="11">
@@ -1479,7 +1348,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="11">
@@ -1488,7 +1357,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="11">
@@ -1497,7 +1366,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="11">
@@ -1506,7 +1375,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="11">
@@ -1517,9 +1386,7 @@
       <c r="A75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B75" s="8"/>
       <c r="C75" s="11">
         <v>11857</v>
       </c>
@@ -1528,16 +1395,14 @@
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B76" s="8"/>
       <c r="C76" s="11">
         <v>11859</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="11">
@@ -1546,7 +1411,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="11">
@@ -1554,111 +1419,91 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="8" t="s">
+      <c r="A79" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="B79" s="8"/>
       <c r="C79" s="11">
         <v>1284</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="A80" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="B80" s="8"/>
       <c r="C80" s="11">
         <v>1308</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="B81" s="8"/>
       <c r="C81" s="11">
         <v>1310</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="B82" s="8"/>
       <c r="C82" s="11">
         <v>1311</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="B83" s="8"/>
       <c r="C83" s="11">
         <v>1318</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="8" t="s">
+      <c r="A84" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B84" s="8"/>
       <c r="C84" s="11">
         <v>1370</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="8" t="s">
+      <c r="A85" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B85" s="8"/>
       <c r="C85" s="11">
         <v>1372</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B86" s="8"/>
       <c r="C86" s="11">
         <v>1384</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="8" t="s">
+      <c r="A87" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="11">
         <v>1455</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="8" t="s">
+      <c r="A88" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B88" s="8"/>
       <c r="C88" s="11">
         <v>14601</v>
       </c>

--- a/data/common/excel/public_category_manual.xlsx
+++ b/data/common/excel/public_category_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483DA30-3E11-4340-AF72-7545A32B5046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8811B9-65E2-4507-B0E3-708723E48838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
   <si>
     <t>SKU</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>APLIQUES Y AROS LED</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED DE PARED</t>
+  </si>
+  <si>
+    <t>BOMBILLAS LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>PROYECTORES LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>PLAFONES Y DOWNLIGHTS PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>FAROLAS LED</t>
   </si>
 </sst>
 </file>
@@ -257,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,13 +336,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,6 +396,7 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -700,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF40A98-2910-49B0-BB76-BAF76F0B7575}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,6 +1535,174 @@
         <v>14601</v>
       </c>
     </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="5">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="5">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="5">
+        <v>20018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="5">
+        <v>20019</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>20020</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="5">
+        <v>20050</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2120016</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="5">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="5">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="5">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="5">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="5">
+        <v>3903</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/common/excel/public_category_manual.xlsx
+++ b/data/common/excel/public_category_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8811B9-65E2-4507-B0E3-708723E48838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D8988-CE78-4813-8574-9B2DC2F01F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
+    <workbookView xWindow="29775" yWindow="1305" windowWidth="18930" windowHeight="14235" xr2:uid="{98414BF8-B91D-4538-8B60-2AD3F6A6ADCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
   <si>
     <t>SKU</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>FAROLAS LED</t>
+  </si>
+  <si>
+    <t>BOMBILLAS LED SMART</t>
+  </si>
+  <si>
+    <t>212756 </t>
+  </si>
+  <si>
+    <t>3001 </t>
+  </si>
+  <si>
+    <t>2999 </t>
+  </si>
+  <si>
+    <t>212754 </t>
+  </si>
+  <si>
+    <t>2755 </t>
+  </si>
+  <si>
+    <t>2751 </t>
+  </si>
+  <si>
+    <t>APARATOS SMART</t>
   </si>
 </sst>
 </file>
@@ -727,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF40A98-2910-49B0-BB76-BAF76F0B7575}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,6 +1727,70 @@
         <v>3903</v>
       </c>
     </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="5">
+        <v>8445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/common/excel/public_category_manual.xlsx
+++ b/data/common/excel/public_category_manual.xlsx
@@ -20,17 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="761">
   <si>
     <t xml:space="preserve">CATEGORY ES</t>
   </si>
   <si>
-    <t xml:space="preserve">CATEGORY EN</t>
-  </si>
-  <si>
     <t xml:space="preserve">SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">NOMBRE</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROYECTORES LED</t>
   </si>
   <si>
@@ -131,6 +131,2178 @@
   </si>
   <si>
     <t xml:space="preserve">APARATOS SMART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAP-B-2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIDE ALU PROFILE BENDABLE 2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAP-B-COV-M-2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIDE ALU PROFILE BENDABLE COVER MILKY 2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDLS44F-1W-Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIDE DECOR LED FILAMENT BULB  1W E27 YELLOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABLS12V11KDIMM-144W-RFC 8526920090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIDE LED STRIP 12V 144W DIMMER 11 KEYS RF REMOTE AND CONTROLLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAP-MINICTRL-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIDE LED STRIP 12V-24V 96W-192W ALU PROFILE MINI CONTROLLER WITH TOUCH BUTTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABLS12V11KDIMM-144W-RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIDE MANDO RF DE CONTROLADOR 144W PARA TIRAS LED 5-24V 11 CANALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOE27S1524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIDE OUTDOOR E27 STRING 15M 24 SOCKETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABBMG27WW-7W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIDE VALUE LED MINI GLOBE E27 7W WW 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT-3.6-200-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK CABLE TIES 3.6X200MM ENTAC - PACK 50 UNITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT-4.8-250-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK CABLE TIES 4.8X250MM ENTAC - PACK 50 UNITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB-TDS-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINCHAS DE AMARRE CON HEBILLA 2,5M - PACK 2 UNIDADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT-4.8-400-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTAC CABLE TIE 4.8MMX400MM BLACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT-7.6-370-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTAC CABLE TIE 7.6MMX370MM BLACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECL-240-WW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTAC CHRISTMAS IP44 240 LED LIGHT WW 24M 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECL-240-WW-LSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTAC CHRISTMAS IP44 240 LED LINKABLE  LIGHT WW 24M SET WITH ADAPTER 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESEG3-1.5-SW-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTAC SOCKET EXTENSION CORD 3 SOCKETS WITH SWITCH 1.5M COLOR SERIES BLACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESEG3-1.5-SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTAC SOCKET EXTENSION CORD 3 SOCKETS WITH SWITCH 1.5M COLOR SERIES WHITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESEG3-1.5-SW-Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTAC SOCKET EXTENSION CORD 3 SOCKETS WITH SWITCH 1.5M COLOR SERIES YELLOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT-4.8-250-W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITE CABLE TIES 4.8X250MM ENTAC - PACK 50 UNITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VS16764] LED LUMINARIA EMERGENCIA SUPERFICIE 4W IP65 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VS8322] LED BOMBILLA 5W E14 R50 ALUMIN. CHIP 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10014] LED MÓDULO 4UNID DIODS SMD5050 IMPERMEABLE RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10016] LED MÓDULO 4UNID DIODS SMD5050 IMPERMEABLE BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10050] LED MÓDULO 3UNID DIODS SMD5630 IMPERMEABLE BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10052] LED MÓDULO 3UNID DIODS SMD5630 IMPERMEABLE BLANCO CÁLIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10054] LED MÓDULO 3UNID DIODS SMD5630 IMPERMEABLE ROJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10056] LED MÓDULO 3UNID DIODS SMD5050 IMPERMEABLE RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10114] PLAFÓN LED SUPERFICIE CON SENSOR DE MOVIMIENTO INCORPORADO 12W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10138] 10W CABINET LIGHT BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10150] T8 20W 120CM LED LÁMPARA BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10204] PAR56 LUZ DE PISCINA BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10206] PAR56 LUZ DE PISCINA RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10208] PAR56 SURFACE LUZ DE PISCINA BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10210] PAR56 SURFACE LUZ DE PISCINA BLANCO CÁLIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10212] PAR56 LUZ DE PISCINA BLANCO CÁLIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10706] 10W LED PROYECTOR REFLECTOR PREMIUM GRAFITO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10710] 10W LED PROYECTOR SENSOR REFLECTOR PREMIUM 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10712] 20W LED PROYECTOR REFLECTOR PREMIUM GRAFITO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10716] 30W LED PROYECTOR REFLECTOR PREMIUM GRAFITO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10760] LED LINEAR HANGING 40W 4000K NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10836] 90W LED FAROLA ALUMBRADO PÚBLICO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10848] 150W LED FAROLA ALUMBRADO PÚBLICO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10856] 30W LED FAROLA ALUMBRADO PÚBLICO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10860] 12W LED BAÑADOR FACHADA RGB 24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD10862] 24W LED BAÑADOR DE FACHADA RGB 24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD1100] CAMPANA INDUSTRIAL LED UFO SAMSUNG PRO 150W 120° 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD1102] CAMPANA INDUSTRIAL LED UFO SAMSUNG PRO 150W 120° 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD1108] 100W LED CAMPANA INDUSTRIAL SAMSUNG CHIP 120º 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11120] 50W LED CAMPANA INDUSTRIAL UFO 90º 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD1112] CAMPANA INDUSTRIAL LED UFO SAMSUNG PRO 100W 90° 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD1114] CAMPANA INDUSTRIAL LED UFO SAMSUNG PRO 100W 90° 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD112082] 200W LED CAMPANA LINEAL CUERPO NEGRO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11220] CAMPANA INDUSTRIAL LED UFO ECO-LINE SMD 50W 120° 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11222] CAMPANA INDUSTRIAL LED UFO ECO-LINE SMD 50W 120° 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11240] 10W LED PROYECTOR PREMIUM SMD GRAFITO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11242] 10W LED PROYECTOR PREMIUM SMD GRAFITO 4500K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11244] 10W LED PROYECTOR PREMIUM SMD GRAFITO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11280] 100W LED PROYECTOR PREMIUM SMD 3000K GRAFITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11306] 30W PROYECTOR LED SLIM 4500K CUERPO BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11378] 150W LED PROYECTOR NEW PREMIUM SMD 4500K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11444] 10W LED PROYECTOR SLIM 6000K CUERPO GRIS/NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11656] 50W LED PROYECTOR SLIM 3000K CUERPO GRIS/NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11682] 50W LED PROYECTOR SENSOR SLIM CUERPO BLANCO 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11692] 100W LED PROYECTOR SLIM 3000K CUERPO GRIS/NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11698] 100W LED PROYECTOR SLIM 3000K CUERPO NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11770] FOCO PROYECTOR LED 50W SMD 110° I SERIES NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11812] FOCO PROYECTOR LED 50W SMD 110° I SERIES BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD11940] FOCO PROYECTOR LED SMD 100W  100° SUPER SLIM SERIE SHINY BLANCO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12094] DRIVER PARA PANEL LED 72W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12116] PANTALLA ESTANCA PREMIUM 1 TUBO LED 1250X80X90MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12118] PANTALLA ESTANCA PREMIUM 1 TUBO LED 1550X80X90MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12124] PANTALLA LED ESTANCA IP65 60W 1200 MM 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12160] LED PANEL 20W 295X295MM 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12172] LED PANEL 36W 595 X 595MM 6000K (DRIVER INCLUIDO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12174] DRIVER PARA PANEL LED 36W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12188] LED PANEL COLGANTE REDONDO Ø400MM 30W 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12190] LED PANEL COLGANTE REDONDO Ø400MM 30W 4500K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12192] LED PANEL COLGANTE REDONDO Ø400MM 30W 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12198] LED PANEL COLGANTE REDONDO Ø500MM 36W 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12252] LED TUBO T8 10W - 60 CM 4500K (CON STARTER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12284] LED GLASS TUBO T8 22W - 150CM 4500K ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12288] LED GLASS TUBO T8 10W - 60CM 6000K ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12292] LED GLASS TUBO T8 14W - 90CM 4500K ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12296] LED GLASS TUBO T8 10W - 60CM 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12298] LED GLASS TUBO T8 18W - 120CM 3000K ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12306] LED GLASS TUBO T8 10W - 60CM 4500K ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12310] PANTALLA PARA 4 TUBOS LED 600X600MM EMPOTRABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12312] PANTALLA PARA 4 TUBOS LED 600X600MM SUPERFICIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12352] PANTALLA LED ESTANCA IP65 50W 1500MM 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12414] LED GLASS TUBO T8 22W - 150CM 3000K NO ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12424] LED GLASS TUBO T8 22W - 150CM 4500K NO ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12464] LED PANEL 42W 595X595MM IP54 4500K DRIVER INCL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12468] LED GLASS TUBO T8 14W - 90CM 4500K NO ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12534] PANTALLA LED ESTANCA IP65 70W 1500MM A++ 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12606] LED TUBO T8 HIGH LUMEN 18W 120CM 3000K A++ 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12608] LED TUBO T8 HIGH LUMEN 18W 120CM A++ 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12630] 36W SHOPLITE NANO 120CM BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12646] LED TUBO T8 18W 120CM "CÁRNICAS" NO ROTATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12652] TUBO LED T8 ESPECIAL CULTIVO "PLANT GROW" 18W 160° 120 CM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12676] 6W LED DOWNLIGHT SAT. NIQUEL EXTRAFINO RED. 4500K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12700] DOWNLIGHT LED EXTRAPLANO CIRCULAR PLATA 18W 120°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12746] 18W LED PREMIUM DWLIGHT SUPERF RED SNÍQUEL 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12804] 10W LUZ LINEAL LED CUERPO BLANCO BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12810] 20W LUZ LINEAL LED CUERPO BLANCO BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12816] 30W LUZ LINEAL LED CUERPO BLANCO BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12820] 10W LUZ LINEAL LED CUERPO BLANCO BLANCO CÁLIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12822] 10W LUZ LINEAL LED CUERPO BLANCO BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12826] 20W LUZ LINEAL LED CUERPO BLANCO BLANCO CÁLIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12828] 20W LUZ LINEAL LED CUERPO BLANCO BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12842] PANEL LED PRO 45W 595MM X 595 MM 120°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12892] PANTALLA LED COMPACTA ESTANCA IP65 CON KIT EMERGENCIA 48W 120° 150CM 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12894] PANTALLA LED COMPACTA ESTANCA IP65  CON KIT EMERGENCIA 48W 120° 150CM 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD12896] PANTALLA LED COMPACTA ESTANCA IP65  CON KIT EMERGENCIA 36W 120° 120CM 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14064] APLIQUE DE PARED ACERO INOX E27 230V IP44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14098] LÁMPARA POWER BANK PORTÁTIL 6W 4000K MADERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14100] LÁMPARA POWER BANK PORTÁTIL 6W 4000K COLOR BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14102] VT-1015 LÁMPARA DE ESCRITORIO LED 5W 4000K CUERPO BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14104] VT-1015 LÁMPARA DE ESCRITORIO LED 5W 4000K CUERPO NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14106] VT-1017 LÁMPARA DE ESCRITORIO LED 7W 4000K CUERPO BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14108] VT-1017 LÁMPARA DE ESCRITORIO LED 7W 4000K CUERPO NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14194] APLIQUE DE PARED SOLAR NEGRO 1'5W 4K+3K IP65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD142022] LED FILAMENT CROSS OPAL BOMBILLA VELA 4W E14 2700K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14206] LED FILAMENT OPAL BOMBILLA VELA 4W E14 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD142082] BOMBILLA LED E14 FILAMENTO CRUZADO V-TAC VELA EFECTO LLAMA 4W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14208] LED FILAMENT OPAL BOMBILLA VELA LLAMA 4W E14 2700K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14212] LED FILAMENT OPAL BOMBILLA VELA LLAMA 4W E14 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14214] LED FILAMENT FROST BOMB. VELA RIZO - 4W E14 2700K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD142182] LBOMBILLA LED 4W FILAMENTO CRUZADO E14 FROST VELA TORCIDA LUZ FRÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14250] BOMBILLA R7S 7W 118MM 360º 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14256] DICROICA LED GU10 PREMIUM SMD OPAL 3W 110° PLUS 220V 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14270] LED BOMBILLA CORN PRO - 20W 200º E27 2700K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14334] LED PREMIUM SMD DICROICA MINI Ø35MM - 2W GU10 3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14352] BOMBILLA LED E14 REGULABLE FILAMENTO VELA FROST COVER 4W 2700K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14370] LED FILAMENT FROST BOMBILLA 9W E27 A67 A++ 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14392] BOMBILLA LED E14 VELA 3W TAPA BLANCA 200° 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14396] BOMBILLA LED E14 VELA 3W TAPA BLANCA 200° 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14410] LED 2.5W BOMBILLA G9 300º 230V 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14414] LED 2.5W BOMBILLA G9 300º 230V 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14438] LED FILAMENT GOLD "CURVE" BOMB. 3W E27 A60 2200K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14490] LED 3W BOMBILLA G9 230V 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14506] LED 3W BOMBILLA G9 300º 230V DIMMABLE 2700K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14508] LED 3W BOMBILLA G9 300º 230V DIMMABLE 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14510] LED 3W BOMBILLA G9 300º 230V DIMMABLE 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14556] LED BOMBILLA CORN PRO - 36W E27 T120 200º 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14566] BLISTER PACKING DUO - LÁMPARA LED GLOBO CROSS FILAMENT A60 E27 4W 300°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14612] BLISTER PACKING DUO - DICROICA LED GU10 SMD OPAL 6.5W 38° 220V REGULABLE 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14616] BLISTER PACKING DUO - DICROICA LED GU10 SMD OPAL 6.5W 38° 220V REGULABLE 6400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14626] LED BOMBILLA T160 - 60W E27 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14674] LED 2W BOMBILLA G9 230V 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14678] LED 2W BOMBILLA G9 230V 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD14680] BLISTER PACKING DUO - BOMBILLA LED MICRO G9 2W 230°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16066] 6W SPARE DRIVERS FOR GLASS PANELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16076] 22W NON-REGULABLE DRIVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16116] DRIVER LED REGULABLE PARA DOWNLIGHT LED EXTRAPLANO 8W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16118] 15W REGULABLE DRIVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16120] 22W REGULABLE DRIVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16200] LUZ LED SALIDA DE EMERGENCIA SUSPENDIDA EN SUPERFICIE 6000K 2W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16400] LED CARTEL EMERGENCIA COLGANTE DE EMPOTRAR 2W 24H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16402] LED CARTEL EMERGENCIA DE EMPOTRAR 2W IP20 24H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16624] LED LUM. EMERGENCIA SUP. GRADUABLE 2W 160LM 12H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD16630] LED CARTEL EMERGENCIA DE EMPOTRAR 2W IP20 12H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD17032] LÁMPARA+ALTAVOZ BLUETOOTH PORTÁTIL 3W 3K+RGB DIMMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD17328] RADIADOR CONVECTOR DE CRISTAL 2000W NEGRO IP24 RF PANTALLA LCD DISPLAY &amp; RUEDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19420] LED MODULE 256*128MM P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19426] PLETINA DE FIJACIÓN PARA DISPLAY INDOOR P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19432] CABLE DE ALIMENTACIÓN P4-P5-P6 0.7 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19772] 6W MARCOS PARA MONTAJE EXTERIOR KIT PARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19774] 12W MARCOS PARA MONTAJE EXTERIOR KIT PARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19776] 18W MARCOS PARA MONTAJE EXTERIOR KIT PARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19854] KIT COLGANTE LÁMPARA SUPERFICIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19858] 1 METRO NEGRO 2 CORE PISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19860] 1,5 METRO CARRIL 2 NÚCLEOS COLOR NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19876] 2 METROS CARRIL 2 NÚCLEOS COLOR NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19898] 1 METRO CARRIL 2 NÚCLEOS COLOR BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19900] 1,5 METRO CARRIL 2 NÚCLEOS COLOR BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19902] 2 METROS CARRIL 2 NÚCLEOS COLOR BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19962] ALUMINIO PERFIL SUPERFICIE DIFUSOR PLANO TRANS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19964] ALUMINIO PERFIL SUPERFICIE CON DIFUSOR PLANO OPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19970] ALUMINIO PERFIL ANCHO SUPERFICIE DIFUSOR TRANSP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19974] PERFIL ALUMINIO TIRA LED DE ESQUINA 1 MTS. - DIFUSOR PLANO OPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19980] ALUMINIO PERFIL DE EMPOTRAR CON DIFUSOR OPAL (1M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19982] KIT DE MONTAJE PARA TIRAS DE LED DE ALUMINIO CON DIFUSOR OPACO 200CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19986] PERFIL ALUMINIO STD PARA TIRA LED EN SUPERFICIE 2 MTS. - DIFUSOR PLANO OPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD19990] ALUMINIO PERFIL CIRCULAR CON KIT COLGANTE (1METRO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD200088] CONNECTOR PLATE P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD200100] CONNECTOR PLATE P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD200314] CATÁLOGO FOTOVOLTAICO V-TAC 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD20198] PRECINTO V-TAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD20674] ALAMBRE DE HIERRO RECUBIERTO DE PVC DE MALLA NEGRA 12.7MMX12.7MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD20676] GANCHO J DE ACERO INOXIDABLE 2.5MMX120MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD20678] GANCHO J DE NYLON 110MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD20680] BRIDA PARA CABLES DE ACERO INOXIDABLE - 4.6MMX250MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2068] 20W LED DOWNLIGHT COB SN CUERPO BLANCO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD20694] ALAMBRE DE HIERRO RECUBIERTO DE PVC DE MALLA NEGRA CON GANCHO DE NYLON Y BRIDAS DE ACERO INOXIDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD20728] BOLSA DE PLÁSTICO V-TAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD20738] ALAMBRE DE HIERRO RECUBIERTO DE PVC DE MALLA NEGRA CON GANCHO DE ACERO INOXIDABLE Y JUEGO DE CORREAS DE ACERO INOXIDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD21040] CATÁLOGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD21268] ACCESSORIES FOR PANEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2182] 35W LED RECTANGULAR DOWNLIGHT COB BLAN. 3000K IP66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2226] 8W LED DOWNLIGHT COB CUADRADO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2230] VT-2908 SQ 8W LED COB DOWNLIGHTS CÓDIGO DE COLOR: 6000K PKW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2236] 8W LED DOWNLIGHT COB REDONDO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD22406] LÁMPARA GERMICIDA UV-C DE 38W DESINFECCIÓN POR OZONO PARA 60M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2240] 3W LED DOWNLIGHT COB REDONDO BLANCO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD22416] LÁMPARA GERMICIDA UVC 38W CON SENSOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2244] 3W LED DOWNLIGHT COB CUADRADO BLANCO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2246] 5W LED DOWNLIGHT COB REDONDO BLANCO 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2252] 5W LED DOWNLIGHT COB CUADRADO BLANCO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2256] 25W LED DOWNLIGHT COB ZOOM FITTING BLANCO 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2258] 25W LED DOWNLIGHT COB ZOOM FITTING BLANCO 5000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2260] 5W LED DOWNLIGHT COB REDONDO NÍQUEL 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD22690] DRIVER PARA PANEL LED 40W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23030] MEDIDOR DE INTELIGENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2306] 6W LED DOWNLIGHT COB CUADRADO IP65 5000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23080] CABLE DE ALIMENTACIÓN DC 4AWG 1 PAR ROJO Y NEGRO 2000MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23082] CABLE DE ALIMENTACIÓN 4AWG 1PAR 600MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2316] 22W LED DOWNLIGHT COB 5000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23220] BMS PARA BATERÍA SOLAR DE 6,14KWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23222] RESISTENCIA DE PRECARGA PARA BATERÍA SOLAR DE 6,14KWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23224] BLOQUES DE TERMINALES DE CC PARA BATERÍA SOLAR DE 6,14KWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23226] BOTÓN DE ENCENDIDO PARA BATERÍA SOLAR DE 6,14KWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23488] GANCHO PARA TECHO DE TEJA PLANA RETRATO CON 2 TORNILLOS PARA MADERA 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23490] GANCHO PARA TECHO DE TEJA DE PIZARRA CON 2 TORNILLOS PARA MADERA 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23500] ABRAZADERA UNIVERSAL NEGRA 35-46MM ALUMINIO 605 T5 &amp; SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23504] ABRAZADERA MEDIA PLATA 30MM ALUMINIO 605 T5 Y ACERO INOXIDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23572] TAPA EXTREMO DE RIEL NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23574] ABRAZADERA EXTREMO PLATA 30MM ALUMINIO 605 T5 &amp; SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23578] V-TAC APAISADOCON GANCHO PARA TECHO DE TEJAS PLANAS Y LISAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23580] GANCHO PARA TECHO DE TEJAS DE PIZARRA V-TAC PAISAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23582] GANCHO AJUSTABLE PARA TECHO DE TEJAS DE HORMIGÓN PAISAJÍSTICO V-TAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23584] V-TAC RIEL DE MONTAJE DE ALUMINIO DE 3 3 ANODIZADO PLATEADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23586] ABRAZADERA UNIVERSAL DE ALUMINIO V-TAC 35-46 MM ANODIZADO PLATEADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23588] EMPALME DE RIEL DE ALUMINIO V-TAC CON PERNO DE FIJACIÓN DE 2 PIEZAS PLATA ANODIZADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23590] TAPA DE EXTREMO DE RIEL V-TAC PLATEADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23592] SOPORTE TRIANGULAR V-TAC PARA TECHO PLANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23636] MÓDULO 405W MONOFACIAL FULL NEGRO TIER 1 1722X1134X30MM LÁMINA TRASERA NEGRA CON MARCO NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23668] GANCHO VERTICAL V-TAC (2 TORNILLOS PARA MADERA Y 1 ACOLCHADO INCLUIDOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23700] MÓDULO SOLAR BIFACIAL ALTA EFICIENCIA TOP N-TOPCON 430W 1722X1134X30MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD23736] ESTACIÓN DE CARGA V-TAC 7 4KW MONOFÁSICA 230V 32A PARA VEHÍCULOS ELÉCTRICOS CON CABLE DE 5M Y 2 TARJETAS DE ACTIVACIÓN IP65 IK10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2406] 23W LED COB EURO TRACK FOCO CARRIL 5000K BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2412] 23W LED COB EURO TRACK FOCO CARRIL NEGRO 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2520] 8WPLAFON LAMPARA LED REDONDO CUERPO NEGRO BLANCO NATURAL IP66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2624] 8W LÁMPARA ÓVALO CUERPO BLANCO BLANCO NATURAL IP54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2770] CONECTOR X 8 SALIDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2776]PLAFON LIGHT LED 15W REDONDO LUZ CÁLIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2782]PLAFON LIGHT LED 15W CUADRADO LUZ FRÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2786] LUZ DE TECHO LED 25W REDONDO BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2794] LUZ DE TECHO LED 25W CUADRADO BLANCO FRÍO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2828] 12W LED APLIQUE SUPERF. RED. Ø250X80MM 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD2926] LUZ LED PARA PELDAÑO ESCALERA 0.5W COLOR PLATA 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3032] LED SHARP COB DICROICA - 5W MR16 12V 4500K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3040] LED DICROICA - 5W GU10 CHIP 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3056] LED SHARP DICROICA - 7W MR16 4500K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3084] LED SHARP DICROICA - 7W MR16 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3104] LED SHARP DICROICA - 7W MR16 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3108] LED DICROICA - 4W MR16 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3196] LED DICROICA - 3W GU10 CRYSTAL 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3200] LED DICROICA - 3W GU10 CRYSTAL 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3228] LED 2,5W BOMBILLA G4 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3246] LED PREMIUM DICROICA - 3W GU10 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD3318] LED PREMIUM SMD DICROICA - 7W GU10 38º 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD424288] TIRA LED SMD5050 4.8W/M 30 LEDS/M 12V IP65 5 METROS 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD435092] PIQUETA DE JARDÍN LED SERIE MODERN VERDE 12W 30° IP65 NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD46138] MINI RIEL V-TAC DE 140 MM 2 TORNILLOS 2 ALMOHADILLAS DE GOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD46140] MINI RIEL V-TAC DE 400 MM - 2 TORNILLOS - 2 ALMOHADILLAS DE GOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD46142] 20W/25W/30W LED PANTALLA CHIP SAMSUNG 1.2M 3IN1 IP65/IK10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD46164] 40W/50W/60W PANTALLA LED-SENSOR SAMSUNG+EMERGENCIA 1.8M 3IN1-IP65/IK10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD46370] CONECTOR V-TAC GU10 CON FASTFIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD46664] VT-5558 LIMPIADOR DE VENTANAS ROBÓTICO DUAL SPRAY COMPATIBLE CON AMAZON ALEXA Y GOOGLE HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD46666] VT-5559 LIMPIADOR DE VENTANAS ROBÓTICO DUAL SPRAY COMPATIBLE CON AMAZON ALEXA Y GOOGLE HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD46804] TOMA BOLARDO 16A MAX 3600W TOMA POTENCIA PILA ACERO INOXIDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD4800] TIRA LED SMD3014 60LEDS IP20 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD4802] TIRA LED SMD3014 60LEDS IP20 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD4902] TIRA LED SMD5630 - 60 LEDS 6000K IP20 /20-22LM/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5072] TIRA RÍGIDA LED 18W 12V SMD4014 1M LUZ NATURAL 2 UNID./PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5078] TIRA RÍGIDA LED 18W 12V SMD4014 1M LUZ NATURAL 10 UNID./PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5084] TIRA RÍGIDA 144LED SMD4014 BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5086] TIRA RÍGIDA 144LED SMD4014 BLANCO FRÍO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5348] LED COB TIRA SET IP20 24V 4000K 280 LEDS 10W/M /2653 + 3264/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5350] LED COB TIRA SET IP20 24V 6400K 280 LEDS 10W/M /2654 + 3264/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5352] LED COB TIRA SET IP20 24V 3000K 420 LEDS 10W/M /2667 + 3264/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5354] LED COB TIRA SET IP20 24V 4000K 420 LEDS 10W/M /2668 + 3264/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5356] LED COB TIRA SET IP20 24V 6000K 420 LEDS 10W/M /2669 + 3264/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5358] LED COB TIRA SET IP20 24V 3000K 512 LEDS 12W/M /2649 + 3272/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5360] LED COB TIRA SET IP20 24V 4000K 512 LEDS 12W/M /2650 + 3272/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5362] LED COB TIRA SET IP20 24V 6000K 512 LEDS 12W/M /2651 + 3272/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5444] BOMBILLA LED MICRO G9 7W 300° 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD5446] BOMBILLA LED MICRO G9 7W 300° 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6212] 40W DALI DRIVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6214] DALI MASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6216] DALI TOUCH PANEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6218] DALI FUENTE DE ALIMENTACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6220] 30W MAX DALI DRIVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6340] GU10 FITTING CUADRADO BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD648] TIRA DE LED CHIP SAMSUNG 2835 120 LED 12V IP20 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6608] RADIO CONTROLADOR CON MANDO A DISTANCIA DE 16 BOTONÉS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6614] 360W DMX 512 CONTROLADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6634] CONTROLADOR INFRARROJO CON MANDO A DISTANCIA DE 44 BOTONÉS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6636] RADIO CONTROLADOR 500W CON MANDO A DISTANCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6650] DIMMER PARA TIRAS LED ROTATIVO 24W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6838] B22-E27 CONVERTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD6840] CONVERSOR B22-E14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7042] 2T ACCESORIO UNIÓN FOCO CARRIL BLANCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7066] CONECTOR PARA TIRA RIGIDA 5UNID. DC JACK SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7126] APLIQUE CARRIL 4 NÚCLEOS ZHAGA 20W/30W NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD71502] ARO 1 X AR111 BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD71522] ARO 2 X AR111 BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7154] 3 X AR111 SOPORTE BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7158] GU10 SOPORTE MW RESISTENTE A FUEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7160] GU10 CASQUILLO SN FIRE RATED REGLETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD71622] ARO 1 X AR111 NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD71642] ARO 2 X AR111 NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7166] 3 X AR111 SOPORTE NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7202] 2 X GU10 SOPORTE REDONDO BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7204] 2 X GU10 SOPORTE REDONDO ALUMINUM BRUSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7206] 3 X GU10 SOPORTE REDONDO BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7208] 3 X GU10 SOPORTE REDONDO ALUMINUM BRUSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7248] ADAPTADOR PARA FAROLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD72530] MR16 SOPORTE DE CERÁMICA CON CABLE DE SILICONA 5 UNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7266] 2 METROS NEGRO 2 CORE PISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7268] 2 METROS BLANCO 2 CORE PISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7556] CUERDA DE TELA 2*0.75 MM NEGRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7558] CUERDA TORCIDA 2*0.75 MM NEGRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7560] CUERDA TORCIDA 2*0.75 MM MARRÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7562] SET ADATTATORE E BASE DEL SOFFITTO CROMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD760] LUMINARIAS LINEALES PARA EMPOTRAR 40W LED SAMSUNG COLOR PLATA 4000K 70MM ANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD762] LUMINARIAS LINEALES PARA EMPOTRAR 40W LED SAMSUNG CUERPO BLANCO 4000K 70MM ANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7692] CUERDA DE TELA 2*0.75 MM BLANCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7880] V-TAC PANTALLA DE CRISTAL PARA COLOR AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7882] PANTALLA DE CRISTAL V-TAC PARA COLOR VERDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD7884] PANTALLA DE VIDRIO V-TAC PARA COLOR AMARILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8342] LED BOMBILLA 5W E14 R50 ALUMIN. CHIP 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8404] LED SMD 2,5W BOMBILLA G4 3000K CONEXIÓN LATERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8406] LED 2W BOMBILLA G9 230V 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8408] LED 2W BOMBILLA G9 230V 4000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8410] LED 2W BOMBILLA G9 230V 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8420] LED BOMBILLA 7W E27 A60 TERMOPLÁSTICA 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8480] LED 1.2W BOMBILLA G4 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8490] LED BOMBILLA - 20W E27 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8566] LED BOMBILLA 5W E27 A60 TERMOPLÁSTICA 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8568] LED BOMBILLA 5W E27 A60 TERMOPLÁSTICA 4500K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8570] LED BOMBILLA 5W E27 A60 TERMOPLÁSTICA 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8576] LED BOMBILLA - 15W E27 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD86002] LED FILAMENT BOMBILLA 4W E14 P45 2700K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8624] LED SMD 3W BOMBILLA G4 360º 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8694] LED BOMBILLA CORN - 20W E27 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8696] LED BOMBILLA CORN - 30W E27 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8710] LED BOMBILLA - 14W E27 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8714] LED BOMBILLA - 14W E27 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8758] LED BOMBILLA 7W E27 A60 DIMMABLE 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8760] LED BOMBILLA 7W E27 A60 DIMMABLE 4500K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8762] LED BOMBILLA 7W E27 A60 DIMMABLE 6000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD8784] PACK DE 3 UNIDADES DE BOMBILLAS LED MICRO G4 1.5W 300°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD9028] 1W LED DOWNLIGHT - REDONDO MINI ALUMINIO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD9032] 1W LED DOWNLIGHT - CUADRADO MINI ALUMINIO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD9470] 1W APLIQUE LED VITRINAS Y ESTANTES SOPORTE FIJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD9472] 2W APLIQUE LED VITRINAS Y ESTANTES SOPORTE FIJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD9562] 1W LED DOWNLIGHT - REDONDO MINI BLANCO 3000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD9586] UP AND DOWN WALL LIGHT BODY 2XGU10 230V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD988] V-TAC PRO PROYECTOR LED CHIP SAMSUNG 250W 120LM/W CON DRIVER MEAN WELL COLOR NEGRO Y AZUL 120° 4000K REGULABLE IP65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD9940] 12W LED FULL REDONDO LÁMPARA CUERPO NEGRO IMPERMEABLE BLANCO NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[VSD9966] 12W LED FULL REDONDO LÁMPARA CUERPO BLANCO IMPERMEABLE BLANCO NATURAL</t>
   </si>
 </sst>
 </file>
@@ -140,7 +2312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +2360,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -202,9 +2367,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="19">
@@ -388,88 +2554,88 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,16 +2659,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="18" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -756,1035 +2930,949 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C480"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
+      <selection pane="topLeft" activeCell="A480" activeCellId="0" sqref="480:480"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="43.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="41.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="126.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="43.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="n">
+      <c r="B2" s="5" t="n">
         <v>11136</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5" t="n">
+      <c r="B3" s="5" t="n">
         <v>11859</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="n">
+      <c r="B4" s="5" t="n">
         <v>7085</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="n">
+      <c r="B5" s="5" t="n">
         <v>11364</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="n">
+      <c r="B6" s="10" t="n">
         <v>11365</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="n">
+      <c r="B7" s="12" t="n">
         <v>579</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15" t="n">
+      <c r="B8" s="14" t="n">
         <v>6269</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="17" t="n">
+      <c r="B9" s="16" t="n">
         <v>6283</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="17" t="n">
+      <c r="B10" s="16" t="n">
         <v>6416</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="17" t="n">
+      <c r="B11" s="16" t="n">
         <v>6614</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="17" t="n">
+      <c r="B12" s="16" t="n">
         <v>6907</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="17" t="n">
+      <c r="B13" s="16" t="n">
         <v>6916</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="17" t="n">
+      <c r="B14" s="16" t="n">
         <v>6919</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="17" t="n">
+      <c r="B15" s="16" t="n">
         <v>6932</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="17" t="n">
+      <c r="B16" s="16" t="n">
         <v>7085</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="17" t="n">
+      <c r="B17" s="16" t="n">
         <v>7166</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="17" t="n">
+      <c r="B18" s="16" t="n">
         <v>7307</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="17" t="n">
+      <c r="B19" s="16" t="n">
         <v>7745</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="17" t="n">
+      <c r="B20" s="16" t="n">
         <v>7814</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="17" t="n">
+      <c r="B21" s="16" t="n">
         <v>782</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="17" t="n">
+      <c r="B22" s="16" t="n">
         <v>783</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="17" t="n">
+      <c r="B23" s="16" t="n">
         <v>8036</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="17" t="n">
+      <c r="B24" s="16" t="n">
         <v>8037</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="17" t="n">
+      <c r="B25" s="16" t="n">
         <v>8072</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="17" t="n">
+      <c r="B26" s="16" t="n">
         <v>8119</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="17" t="n">
+      <c r="B27" s="16" t="n">
         <v>8229</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="17" t="n">
+      <c r="B28" s="16" t="n">
         <v>8230</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="17" t="n">
+      <c r="B29" s="16" t="n">
         <v>8231</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="17" t="n">
+      <c r="B30" s="16" t="n">
         <v>8241</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="17" t="n">
+      <c r="B31" s="16" t="n">
         <v>8355</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="17" t="n">
+      <c r="B32" s="16" t="n">
         <v>8359</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="17" t="n">
+      <c r="B33" s="16" t="n">
         <v>8445</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="17" t="n">
+      <c r="B34" s="16" t="n">
         <v>8471</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="17" t="n">
+      <c r="B35" s="16" t="n">
         <v>8472</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="17" t="n">
+      <c r="B36" s="16" t="n">
         <v>8518</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="17" t="n">
+      <c r="B37" s="16" t="n">
         <v>8621</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="17" t="n">
+      <c r="B38" s="16" t="n">
         <v>9107</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="17" t="n">
+      <c r="B39" s="16" t="n">
         <v>9550</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="17" t="n">
+      <c r="B40" s="16" t="n">
         <v>9711</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="17" t="n">
+      <c r="B41" s="16" t="n">
         <v>9889</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="17" t="n">
+      <c r="B42" s="16" t="n">
         <v>99562</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="17" t="n">
+      <c r="B43" s="16" t="n">
         <v>99572</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="17" t="n">
+      <c r="B44" s="16" t="n">
         <v>9968</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="17" t="n">
+      <c r="B45" s="16" t="n">
         <v>100025</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="17" t="n">
+      <c r="B46" s="16" t="n">
         <v>100067</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="17" t="n">
+      <c r="B47" s="16" t="n">
         <v>10186</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="17" t="n">
+      <c r="B48" s="16" t="n">
         <v>1078</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="17" t="n">
+      <c r="B49" s="16" t="n">
         <v>1079</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="17" t="n">
+      <c r="B50" s="16" t="n">
         <v>111258</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="17" t="n">
+      <c r="B51" s="16" t="n">
         <v>11136</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="17" t="n">
+      <c r="B52" s="16" t="n">
         <v>11140</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="17" t="n">
+      <c r="B53" s="16" t="n">
         <v>11147</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="17" t="n">
+      <c r="B54" s="16" t="n">
         <v>11148</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="17" t="n">
+      <c r="B55" s="16" t="n">
         <v>11149</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="17" t="n">
+      <c r="B56" s="16" t="n">
         <v>11151</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="17" t="n">
+      <c r="B57" s="16" t="n">
         <v>11152</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="17" t="n">
+      <c r="B58" s="16" t="n">
         <v>11155</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="17" t="n">
+      <c r="B59" s="16" t="n">
         <v>11220</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="17" t="n">
+      <c r="B60" s="16" t="n">
         <v>11225</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="17" t="n">
+      <c r="B61" s="16" t="n">
         <v>11241</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="17" t="n">
+      <c r="B62" s="16" t="n">
         <v>11272</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="17" t="n">
+      <c r="B63" s="16" t="n">
         <v>11364</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="17" t="n">
+      <c r="B64" s="16" t="n">
         <v>11365</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="17" t="n">
+      <c r="B65" s="16" t="n">
         <v>11558</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="17" t="n">
+      <c r="B66" s="16" t="n">
         <v>11559</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="17" t="n">
+      <c r="B67" s="16" t="n">
         <v>11739</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="17" t="n">
+      <c r="B68" s="16" t="n">
         <v>11746</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="17" t="n">
+      <c r="B69" s="16" t="n">
         <v>1177</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="17" t="n">
+      <c r="B70" s="16" t="n">
         <v>1178</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="17" t="n">
+      <c r="B71" s="16" t="n">
         <v>1179</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="17" t="n">
+      <c r="B72" s="16" t="n">
         <v>1180</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="17" t="n">
+      <c r="B73" s="16" t="n">
         <v>1181</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="17" t="n">
+      <c r="B74" s="16" t="n">
         <v>1182</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="17" t="n">
+      <c r="B75" s="16" t="n">
         <v>11857</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="17" t="n">
+      <c r="B76" s="16" t="n">
         <v>11859</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="17" t="n">
+      <c r="B77" s="16" t="n">
         <v>1207</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="17" t="n">
+      <c r="B78" s="16" t="n">
         <v>1208</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="17" t="n">
+      <c r="B79" s="16" t="n">
         <v>1284</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="17" t="n">
+      <c r="B80" s="16" t="n">
         <v>1308</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="17" t="n">
+      <c r="B81" s="16" t="n">
         <v>1310</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="17" t="n">
+      <c r="B82" s="16" t="n">
         <v>1311</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="17" t="n">
+      <c r="B83" s="16" t="n">
         <v>1318</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="17" t="n">
+      <c r="B84" s="16" t="n">
         <v>1370</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="17" t="n">
+      <c r="B85" s="16" t="n">
         <v>1372</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="17" t="n">
+      <c r="B86" s="16" t="n">
         <v>1384</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="17" t="n">
+      <c r="B87" s="16" t="n">
         <v>1455</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="17" t="n">
+      <c r="B88" s="16" t="n">
         <v>14601</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="1" t="n">
+      <c r="B89" s="27" t="n">
         <v>572</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="1" t="n">
+      <c r="B90" s="27" t="n">
         <v>573</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="1" t="n">
+      <c r="B91" s="27" t="n">
         <v>6417</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="1" t="n">
+      <c r="B92" s="27" t="n">
         <v>1327</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="1" t="n">
+      <c r="B93" s="27" t="n">
         <v>1485</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="1" t="n">
+      <c r="B94" s="27" t="n">
         <v>1486</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="1" t="n">
+      <c r="B95" s="27" t="n">
         <v>1487</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="1" t="n">
+      <c r="B96" s="27" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="1" t="n">
+      <c r="B97" s="27" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="1" t="n">
+      <c r="B98" s="27" t="n">
         <v>20018</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="1" t="n">
+      <c r="B99" s="27" t="n">
         <v>20019</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="1" t="n">
+      <c r="B100" s="27" t="n">
         <v>20020</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="1" t="n">
+      <c r="B101" s="27" t="n">
         <v>20050</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="1" t="n">
+      <c r="B102" s="27" t="n">
         <v>2120016</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="1" t="n">
+      <c r="B103" s="27" t="n">
         <v>284</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="1" t="n">
+      <c r="B104" s="27" t="n">
         <v>285</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="1" t="n">
+      <c r="B105" s="27" t="n">
         <v>3624</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="1" t="n">
+      <c r="B106" s="27" t="n">
         <v>3668</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="1" t="n">
+      <c r="B107" s="27" t="n">
         <v>3719</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="1" t="n">
+      <c r="B108" s="27" t="n">
         <v>3902</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="1" t="n">
+      <c r="B109" s="27" t="n">
         <v>3903</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C110" s="1" t="n">
+      <c r="B110" s="27" t="n">
         <v>2755</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="B113" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="B114" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="B115" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="B116" s="27" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1792,16 +3880,2912 @@
       <c r="A117" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C117" s="1" t="n">
+      <c r="B117" s="27" t="n">
         <v>8445</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="1" t="n">
+      <c r="B118" s="27" t="n">
         <v>76411</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C177" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B178" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C178" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C179" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C183" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C184" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B185" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B186" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C187" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C189" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B190" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B191" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B195" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B196" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B198" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B199" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B200" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B201" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B202" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B203" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B204" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B205" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B206" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B207" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C207" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B208" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B209" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C209" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B210" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B211" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B212" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B213" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B214" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B215" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B216" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C216" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B217" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B218" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C218" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B219" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C219" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B220" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B221" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B222" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C222" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B223" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C223" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B224" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B225" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C225" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B226" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C226" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B227" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C227" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B228" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C228" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B229" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B230" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C230" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B231" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C231" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B232" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C232" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B233" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C233" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B234" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C234" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B235" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C235" s="29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B236" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="C236" s="29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B237" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C237" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B238" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C238" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B239" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C239" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B240" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C240" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B241" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C241" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B242" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C242" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B243" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C243" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B244" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C244" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B245" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C245" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B246" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C246" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B247" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C247" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B248" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C248" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B249" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C249" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B250" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C250" s="29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B251" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C251" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B252" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C252" s="29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B253" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C253" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B254" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C254" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B255" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C255" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B256" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C256" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B257" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C257" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B258" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C258" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B259" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C259" s="29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B260" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C260" s="29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B261" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C261" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B262" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C262" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B263" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C263" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B264" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C264" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B265" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C265" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B266" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C266" s="29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B267" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C267" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B268" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C268" s="29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B269" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C269" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B270" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C270" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B271" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C271" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B272" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C272" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B273" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C273" s="29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B274" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C274" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B275" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C275" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B276" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C276" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B277" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C277" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B278" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C278" s="29" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B279" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="C279" s="29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B280" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C280" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B281" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C281" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B282" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C282" s="29" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B283" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C283" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B284" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B285" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B286" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C286" s="29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B287" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C287" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B288" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C288" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B289" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C289" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B290" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C290" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B291" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C291" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B292" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C292" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B293" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C293" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B294" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="C294" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B295" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="C295" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B296" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C296" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B297" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C297" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B298" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="C298" s="29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B299" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C299" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B300" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C300" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B301" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C301" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B302" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="C302" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B303" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C303" s="29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B304" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C304" s="29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B305" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="C305" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B306" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C306" s="29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B307" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C307" s="29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B308" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="C308" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B309" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C309" s="29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B310" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="C310" s="29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B311" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C311" s="29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B312" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C312" s="29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B313" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C313" s="29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B314" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C314" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B315" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="C315" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B316" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B317" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C317" s="29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B318" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C318" s="29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B319" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C319" s="29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B320" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C320" s="29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B321" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C321" s="29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B322" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C322" s="29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B323" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C323" s="29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B324" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C324" s="29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B325" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="C325" s="29" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B326" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="C326" s="29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B327" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C327" s="29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B328" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C328" s="29" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B329" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="C329" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B330" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="C330" s="29" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B331" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C331" s="29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B332" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C332" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B333" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C333" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B334" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C334" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B335" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C335" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B336" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C336" s="29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B337" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="C337" s="29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B338" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="C338" s="29" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B339" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="C339" s="29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B340" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C340" s="29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B341" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="C341" s="29" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B342" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C342" s="29" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B343" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="C343" s="29" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B344" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="C344" s="29" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B345" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C345" s="29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B346" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C346" s="29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B347" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="C347" s="29" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B348" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="C348" s="29" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B349" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C349" s="29" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B350" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="C350" s="29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B351" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C351" s="29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B352" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C352" s="29" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B353" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C353" s="29" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B354" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C354" s="29" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B355" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="C355" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B356" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="C356" s="29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B357" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="C357" s="29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B358" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="C358" s="29" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B359" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="C359" s="29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B360" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="C360" s="29" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B361" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="C361" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B362" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="C362" s="29" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B363" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C363" s="29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B364" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="C364" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B365" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="C365" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B366" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C366" s="29" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B367" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="C367" s="29" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B368" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="C368" s="29" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B369" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="C369" s="29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B370" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="C370" s="29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B371" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C371" s="29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B372" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C372" s="29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B373" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="C373" s="29" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B374" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="C374" s="29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B375" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="C375" s="29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B376" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="C376" s="29" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B377" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="C377" s="29" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B378" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="C378" s="29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B379" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C379" s="29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B380" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C380" s="29" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B381" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="C381" s="29" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B382" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="C382" s="29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B383" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C383" s="29" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B384" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="C384" s="29" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B385" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="C385" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B386" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="C386" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B387" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C387" s="29" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B388" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="C388" s="29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B389" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="C389" s="29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B390" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="C390" s="29" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B391" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="C391" s="29" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B392" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="C392" s="29" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B393" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="C393" s="29" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B394" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C394" s="29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B395" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="C395" s="29" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B396" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="C396" s="29" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B397" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="C397" s="29" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B398" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="C398" s="29" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B399" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="C399" s="29" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B400" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C400" s="29" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B401" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="C401" s="29" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B402" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="C402" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B403" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="C403" s="29" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B404" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="C404" s="29" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B405" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C405" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B406" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="C406" s="29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B407" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="C407" s="29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B408" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="C408" s="29" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B409" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="C409" s="29" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B410" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="C410" s="29" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B411" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="C411" s="29" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B412" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="C412" s="29" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B413" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="C413" s="29" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B414" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="C414" s="29" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B415" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="C415" s="29" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B416" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="C416" s="29" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B417" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="C417" s="29" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B418" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="C418" s="29" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B419" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C419" s="29" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B420" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="C420" s="29" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B421" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="C421" s="29" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B422" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="C422" s="29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B423" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="C423" s="29" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B424" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="C424" s="29" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B425" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="C425" s="29" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B426" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="C426" s="29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B427" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="C427" s="29" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B428" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="C428" s="29" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B429" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="C429" s="29" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B430" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="C430" s="29" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B431" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="C431" s="29" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B432" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="C432" s="29" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B433" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="C433" s="29" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B434" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="C434" s="29" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B435" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="C435" s="29" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B436" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="C436" s="29" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B437" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="C437" s="29" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B438" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="C438" s="29" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B439" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="C439" s="29" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B440" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="C440" s="29" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B441" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="C441" s="29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B442" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="C442" s="29" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B443" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="C443" s="29" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B444" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="C444" s="29" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B445" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C445" s="29" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B446" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="C446" s="29" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B447" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="C447" s="29" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B448" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="C448" s="29" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B449" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="C449" s="29" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B450" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="C450" s="29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B451" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="C451" s="29" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B452" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="C452" s="29" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B453" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="C453" s="29" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B454" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="C454" s="29" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B455" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="C455" s="29" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B456" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="C456" s="29" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B457" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="C457" s="29" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B458" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="C458" s="29" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B459" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="C459" s="29" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B460" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="C460" s="29" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B461" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="C461" s="29" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B462" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="C462" s="29" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B463" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="C463" s="29" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B464" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="C464" s="29" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B465" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="C465" s="29" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B466" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="C466" s="29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B467" s="29" t="s">
+        <v>733</v>
+      </c>
+      <c r="C467" s="29" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B468" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="C468" s="29" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B469" s="29" t="s">
+        <v>737</v>
+      </c>
+      <c r="C469" s="29" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B470" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="C470" s="29" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B471" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="C471" s="29" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B472" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="C472" s="29" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B473" s="29" t="s">
+        <v>745</v>
+      </c>
+      <c r="C473" s="29" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B474" s="29" t="s">
+        <v>747</v>
+      </c>
+      <c r="C474" s="29" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B475" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="C475" s="29" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B476" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="C476" s="29" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B477" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="C477" s="29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B478" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="C478" s="29" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B479" s="29" t="s">
+        <v>757</v>
+      </c>
+      <c r="C479" s="29" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B480" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="C480" s="29" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/data/common/excel/public_category_manual.xlsx
+++ b/data/common/excel/public_category_manual.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="772">
   <si>
     <t xml:space="preserve">CATEGORY ES</t>
   </si>
@@ -247,6 +247,9 @@
     <t xml:space="preserve">WHITE CABLE TIES 4.8X250MM ENTAC - PACK 50 UNITS</t>
   </si>
   <si>
+    <t xml:space="preserve">LUCES DE EMERGENCIA LED</t>
+  </si>
+  <si>
     <t xml:space="preserve">8382</t>
   </si>
   <si>
@@ -313,6 +316,9 @@
     <t xml:space="preserve">[VSD10150] T8 20W 120CM LED LÁMPARA BLANCO NATURAL</t>
   </si>
   <si>
+    <t xml:space="preserve">LUCES DECORATIVAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">5102</t>
   </si>
   <si>
@@ -403,6 +409,9 @@
     <t xml:space="preserve">[VSD10862] 24W LED BAÑADOR DE FACHADA RGB 24V</t>
   </si>
   <si>
+    <t xml:space="preserve">CAMPANAS LED PRO SAMSUNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">550</t>
   </si>
   <si>
@@ -541,12 +550,18 @@
     <t xml:space="preserve">[VSD11940] FOCO PROYECTOR LED SMD 100W  100° SUPER SLIM SERIE SHINY BLANCO 3000K</t>
   </si>
   <si>
+    <t xml:space="preserve">FUENTES, PERFILES Y CONTROLADORES</t>
+  </si>
+  <si>
     <t xml:space="preserve">6047</t>
   </si>
   <si>
     <t xml:space="preserve">[VSD12094] DRIVER PARA PANEL LED 72W</t>
   </si>
   <si>
+    <t xml:space="preserve">PANTALLAS LED</t>
+  </si>
+  <si>
     <t xml:space="preserve">6058</t>
   </si>
   <si>
@@ -559,6 +574,9 @@
     <t xml:space="preserve">[VSD12118] PANTALLA ESTANCA PREMIUM 1 TUBO LED 1550X80X90MM </t>
   </si>
   <si>
+    <t xml:space="preserve">PANTALLAS LED IP65</t>
+  </si>
+  <si>
     <t xml:space="preserve">6062</t>
   </si>
   <si>
@@ -817,6 +835,9 @@
     <t xml:space="preserve">[VSD14064] APLIQUE DE PARED ACERO INOX E27 230V IP44</t>
   </si>
   <si>
+    <t xml:space="preserve">BATERIAS EXTERNAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">7049</t>
   </si>
   <si>
@@ -829,6 +850,9 @@
     <t xml:space="preserve">[VSD14100] LÁMPARA POWER BANK PORTÁTIL 6W 4000K COLOR BLANCO</t>
   </si>
   <si>
+    <t xml:space="preserve">LUCES LED DE MESA Y DE PIE</t>
+  </si>
+  <si>
     <t xml:space="preserve">7051</t>
   </si>
   <si>
@@ -1099,6 +1123,9 @@
     <t xml:space="preserve">[VSD16630] LED CARTEL EMERGENCIA DE EMPOTRAR 2W IP20 12H</t>
   </si>
   <si>
+    <t xml:space="preserve">ALTAVOCES Y AURICULARES</t>
+  </si>
+  <si>
     <t xml:space="preserve">8516</t>
   </si>
   <si>
@@ -1279,10 +1306,16 @@
     <t xml:space="preserve">[VSD20678] GANCHO J DE NYLON 110MM</t>
   </si>
   <si>
+    <t xml:space="preserve">BRIDAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">10340</t>
   </si>
   <si>
     <t xml:space="preserve">[VSD20680] BRIDA PARA CABLES DE ACERO INOXIDABLE - 4.6MMX250MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOWNLIGHTS COB</t>
   </si>
   <si>
     <t xml:space="preserve">1034</t>
@@ -2312,7 +2345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2372,8 +2405,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2395,7 +2435,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF800000"/>
+        <bgColor rgb="FFFF3838"/>
       </patternFill>
     </fill>
     <fill>
@@ -2482,6 +2522,18 @@
         <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3838"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
@@ -2558,7 +2610,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2675,8 +2727,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2737,7 +2801,7 @@
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3838"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFA6A6A6"/>
       <rgbColor rgb="FF003366"/>
@@ -2932,17 +2996,17 @@
   </sheetPr>
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A480" activeCellId="0" sqref="480:480"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A337" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A352" activeCellId="0" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="41.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="126.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="43.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,7 +3016,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4045,2747 +4109,3142 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="B138" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B139" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="B146" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="B149" s="29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C149" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="B151" s="29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="B152" s="29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="B153" s="29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B154" s="29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B155" s="29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B156" s="29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B157" s="29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="B159" s="29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="B160" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="B161" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="B164" s="29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="B165" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="C165" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="B167" s="29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="B168" s="29" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="B169" s="29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C169" s="29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="B170" s="29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="B171" s="29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="B172" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B173" s="29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B174" s="29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B175" s="29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C175" s="29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B176" s="29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B177" s="29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B178" s="29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C178" s="29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B179" s="29" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B180" s="29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B181" s="29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B182" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B183" s="29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B184" s="29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B185" s="29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B186" s="29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B187" s="29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="B188" s="29" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C188" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B189" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C189" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B190" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="30" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C189" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="29" t="s">
+      <c r="B193" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0"/>
+      <c r="B194" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0"/>
+      <c r="B195" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0"/>
+      <c r="B196" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0"/>
+      <c r="B197" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C190" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C191" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C192" s="29" t="s">
+      <c r="B205" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="30" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C193" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C194" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C195" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C196" s="29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C197" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C198" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C199" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C200" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B201" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C201" s="29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C202" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C203" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C204" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C205" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C206" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="29" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C207" s="29" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="B208" s="29" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="B209" s="29" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="29" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C210" s="29" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="B211" s="29" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="B212" s="29" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="B213" s="29" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="B214" s="29" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C214" s="29" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="29" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C215" s="29" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="B216" s="29" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C216" s="29" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="B217" s="29" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C217" s="29" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="B218" s="29" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="B219" s="29" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="B220" s="29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="29" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="29" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C223" s="29" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="29" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C224" s="29" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="29" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="29" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C226" s="29" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C227" s="29" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="B228" s="29" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="B229" s="29" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="B230" s="29" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C230" s="29" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="B231" s="29" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C231" s="29" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="30" t="s">
+        <v>5</v>
+      </c>
       <c r="B232" s="29" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="30" t="s">
+        <v>271</v>
+      </c>
       <c r="B233" s="29" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C233" s="29" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="30" t="s">
+        <v>271</v>
+      </c>
       <c r="B234" s="29" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C234" s="29" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="30" t="s">
+        <v>276</v>
+      </c>
       <c r="B235" s="29" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="30" t="s">
+        <v>276</v>
+      </c>
       <c r="B236" s="29" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C236" s="29" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="30" t="s">
+        <v>276</v>
+      </c>
       <c r="B237" s="29" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C237" s="29" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="30" t="s">
+        <v>276</v>
+      </c>
       <c r="B238" s="29" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C238" s="29" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="30" t="s">
+        <v>5</v>
+      </c>
       <c r="B239" s="29" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B240" s="29" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B241" s="29" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B242" s="29" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B243" s="29" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C243" s="29" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B244" s="29" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B245" s="29" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C245" s="29" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B246" s="29" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0"/>
       <c r="B247" s="29" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C247" s="29" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="B248" s="29" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A249" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B249" s="29" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C249" s="29" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="B250" s="29" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C250" s="29" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A251" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B251" s="29" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B252" s="29" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C252" s="29" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B253" s="29" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B254" s="29" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C254" s="29" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="29" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="29" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C256" s="29" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B257" s="29" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C257" s="29" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="29" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C258" s="29" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="29" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C259" s="29" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="29" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="29" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C261" s="29" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B262" s="29" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C262" s="29" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A263" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B263" s="29" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="B264" s="29" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C264" s="29" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="B265" s="29" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C265" s="29" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B266" s="29" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C266" s="29" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="29" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C267" s="29" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="29" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="29" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C269" s="29" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="29" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C270" s="29" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="29" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C271" s="29" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B272" s="29" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C272" s="29" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B273" s="29" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C273" s="29" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B274" s="29" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C274" s="29" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="B275" s="29" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C275" s="29" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="B276" s="29" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C276" s="29" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="B277" s="29" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C277" s="29" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A278" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="B278" s="29" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C278" s="29" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="B279" s="29" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C279" s="29" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="30" t="s">
+        <v>367</v>
+      </c>
       <c r="B280" s="29" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C280" s="29" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="29" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C281" s="29" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="29" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C282" s="29" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="29" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C283" s="29" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="29" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="29" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C285" s="29" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="29" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C286" s="29" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="29" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C287" s="29" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="29" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C288" s="29" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C289" s="29" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="29" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="29" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C291" s="29" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="29" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C292" s="29" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="29" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C293" s="29" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="29" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C294" s="29" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A295" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B295" s="29" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C295" s="29" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A296" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B296" s="29" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C296" s="29" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A297" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B297" s="29" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C297" s="29" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B298" s="29" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C298" s="29" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A299" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B299" s="29" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C299" s="29" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B300" s="29" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C300" s="29" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B301" s="29" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C301" s="29" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B302" s="29" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C302" s="29" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B303" s="29" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C303" s="29" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B304" s="29" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C304" s="29" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="29" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C305" s="29" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B306" s="29" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C306" s="29" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B307" s="29" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C307" s="29" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B308" s="29" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C308" s="29" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B309" s="29" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C309" s="29" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="30" t="s">
+        <v>428</v>
+      </c>
       <c r="B310" s="29" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C310" s="29" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B311" s="29" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C311" s="29" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B312" s="29" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C312" s="29" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B313" s="29" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C313" s="29" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B314" s="29" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B315" s="29" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C315" s="29" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B316" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A317" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="C316" s="29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B317" s="29" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C317" s="29" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A318" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B318" s="29" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C318" s="29" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A319" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B319" s="29" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C319" s="29" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A320" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B320" s="29" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C320" s="29" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B321" s="29" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C321" s="29" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A322" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B322" s="29" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C322" s="29" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B323" s="29" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C323" s="29" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A324" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B324" s="29" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C324" s="29" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A325" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B325" s="29" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C325" s="29" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B326" s="29" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C326" s="29" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A327" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B327" s="29" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C327" s="29" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A328" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B328" s="29" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C328" s="29" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B329" s="29" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C329" s="29" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A330" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="B330" s="29" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C330" s="29" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B331" s="29" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C331" s="29" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A332" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B332" s="29" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C332" s="29" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="29" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C333" s="29" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="29" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C334" s="29" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A335" s="32" t="s">
+        <v>431</v>
+      </c>
       <c r="B335" s="29" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C335" s="29" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B336" s="29" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B337" s="29" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C337" s="29" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B338" s="29" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B339" s="29" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C339" s="29" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B340" s="29" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C340" s="29" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B341" s="29" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="C341" s="29" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B342" s="29" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C342" s="29" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B343" s="29" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C343" s="29" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B344" s="29" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C344" s="29" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B345" s="29" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="C345" s="29" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B346" s="29" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C346" s="29" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B347" s="29" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C347" s="29" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B348" s="29" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C348" s="29" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B349" s="29" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C349" s="29" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B350" s="29" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C350" s="29" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B351" s="29" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C351" s="29" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B352" s="29" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C352" s="29" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B353" s="29" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C353" s="29" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B354" s="29" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C354" s="29" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B355" s="29" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C355" s="29" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B356" s="29" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C356" s="29" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B357" s="29" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="C357" s="29" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B358" s="29" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="C358" s="29" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B359" s="29" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C359" s="29" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B360" s="29" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C360" s="29" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B361" s="29" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C361" s="29" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B362" s="29" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="C362" s="29" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B363" s="29" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C363" s="29" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B364" s="29" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="C364" s="29" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="29" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C365" s="29" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B366" s="29" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C366" s="29" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B367" s="29" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C367" s="29" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B368" s="29" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C368" s="29" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B369" s="29" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="C369" s="29" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B370" s="29" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C370" s="29" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B371" s="29" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C371" s="29" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="29" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C372" s="29" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B373" s="29" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C373" s="29" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="29" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C374" s="29" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="29" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="C375" s="29" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B376" s="29" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="C376" s="29" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B377" s="29" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="C377" s="29" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B378" s="29" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C378" s="29" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="29" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="29" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B381" s="29" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B382" s="29" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B383" s="29" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C383" s="29" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B384" s="29" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C384" s="29" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B385" s="29" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C385" s="29" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B386" s="29" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C386" s="29" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B387" s="29" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C387" s="29" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B388" s="29" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="C388" s="29" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B389" s="29" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C389" s="29" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B390" s="29" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="C390" s="29" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B391" s="29" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C391" s="29" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B392" s="29" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C392" s="29" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B393" s="29" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="C393" s="29" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B394" s="29" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="C394" s="29" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B395" s="29" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C395" s="29" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B396" s="29" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C396" s="29" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B397" s="29" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C397" s="29" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B398" s="29" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="C398" s="29" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B399" s="29" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C399" s="29" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B400" s="29" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C400" s="29" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B401" s="29" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="C401" s="29" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B402" s="29" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C402" s="29" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B403" s="29" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C403" s="29" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B404" s="29" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="C404" s="29" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B405" s="29" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C405" s="29" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B406" s="29" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C406" s="29" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B407" s="29" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C407" s="29" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B408" s="29" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="C408" s="29" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B409" s="29" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C409" s="29" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B410" s="29" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C410" s="29" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B411" s="29" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="C411" s="29" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B412" s="29" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="C412" s="29" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B413" s="29" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C413" s="29" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B414" s="29" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="C414" s="29" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B415" s="29" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C415" s="29" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B416" s="29" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C416" s="29" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B417" s="29" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C417" s="29" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B418" s="29" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="C418" s="29" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B419" s="29" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="C419" s="29" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B420" s="29" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="C420" s="29" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B421" s="29" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C421" s="29" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B422" s="29" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="C422" s="29" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B423" s="29" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="C423" s="29" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B424" s="29" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="C424" s="29" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B425" s="29" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C425" s="29" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B426" s="29" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="C426" s="29" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B427" s="29" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="C427" s="29" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B428" s="29" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="C428" s="29" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B429" s="29" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="C429" s="29" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B430" s="29" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="C430" s="29" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B431" s="29" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="C431" s="29" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B432" s="29" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="C432" s="29" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B433" s="29" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="C433" s="29" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B434" s="29" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B435" s="29" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="C435" s="29" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B436" s="29" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="C436" s="29" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B437" s="29" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="C437" s="29" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B438" s="29" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="C438" s="29" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B439" s="29" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="C439" s="29" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B440" s="29" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="C440" s="29" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B441" s="29" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="C441" s="29" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B442" s="29" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="C442" s="29" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B443" s="29" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="C443" s="29" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B444" s="29" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="C444" s="29" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B445" s="29" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="C445" s="29" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B446" s="29" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="C446" s="29" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B447" s="29" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="C447" s="29" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B448" s="29" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="C448" s="29" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B449" s="29" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="C449" s="29" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B450" s="29" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="C450" s="29" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B451" s="29" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="C451" s="29" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B452" s="29" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="C452" s="29" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B453" s="29" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="C453" s="29" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B454" s="29" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="C454" s="29" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B455" s="29" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="C455" s="29" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B456" s="29" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C456" s="29" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B457" s="29" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="C457" s="29" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B458" s="29" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="C458" s="29" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B459" s="29" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="C459" s="29" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B460" s="29" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="C460" s="29" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B461" s="29" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="C461" s="29" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B462" s="29" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="C462" s="29" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B463" s="29" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="C463" s="29" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B464" s="29" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="C464" s="29" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B465" s="29" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="C465" s="29" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B466" s="29" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="C466" s="29" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B467" s="29" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="C467" s="29" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B468" s="29" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="C468" s="29" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B469" s="29" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="C469" s="29" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B470" s="29" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="C470" s="29" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B471" s="29" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="C471" s="29" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B472" s="29" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="C472" s="29" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B473" s="29" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="C473" s="29" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B474" s="29" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="C474" s="29" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B475" s="29" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="C475" s="29" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B476" s="29" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="C476" s="29" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B477" s="29" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="C477" s="29" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B478" s="29" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="C478" s="29" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B479" s="29" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="C479" s="29" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B480" s="29" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="C480" s="29" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/data/common/excel/public_category_manual.xlsx
+++ b/data/common/excel/public_category_manual.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="774">
   <si>
     <t xml:space="preserve">CATEGORY ES</t>
   </si>
@@ -133,6 +133,9 @@
     <t xml:space="preserve">APARATOS SMART</t>
   </si>
   <si>
+    <t xml:space="preserve">FUENTES, PERFILES Y CONTROLADORES</t>
+  </si>
+  <si>
     <t xml:space="preserve">AAP-B-2M</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t xml:space="preserve">AVIDE MANDO RF DE CONTROLADOR 144W PARA TIRAS LED 5-24V 11 CANALES</t>
   </si>
   <si>
+    <t xml:space="preserve">LUCES DECORATIVAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">AOE27S1524</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t xml:space="preserve">AVIDE VALUE LED MINI GLOBE E27 7W WW 3000K</t>
   </si>
   <si>
+    <t xml:space="preserve">BRIDAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECT-3.6-200-B</t>
   </si>
   <si>
@@ -316,9 +325,6 @@
     <t xml:space="preserve">[VSD10150] T8 20W 120CM LED LÁMPARA BLANCO NATURAL</t>
   </si>
   <si>
-    <t xml:space="preserve">LUCES DECORATIVAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">5102</t>
   </si>
   <si>
@@ -550,9 +556,6 @@
     <t xml:space="preserve">[VSD11940] FOCO PROYECTOR LED SMD 100W  100° SUPER SLIM SERIE SHINY BLANCO 3000K</t>
   </si>
   <si>
-    <t xml:space="preserve">FUENTES, PERFILES Y CONTROLADORES</t>
-  </si>
-  <si>
     <t xml:space="preserve">6047</t>
   </si>
   <si>
@@ -1306,9 +1309,6 @@
     <t xml:space="preserve">[VSD20678] GANCHO J DE NYLON 110MM</t>
   </si>
   <si>
-    <t xml:space="preserve">BRIDAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">10340</t>
   </si>
   <si>
@@ -1531,7 +1531,7 @@
     <t xml:space="preserve">11789</t>
   </si>
   <si>
-    <t xml:space="preserve">[VSD23578] V-TAC APAISADOCON GANCHO PARA TECHO DE TEJAS PLANAS Y LISAS</t>
+    <t xml:space="preserve">[VSD23578] V-TAC APAISADO CON GANCHO PARA TECHO DE TEJAS PLANAS Y LISAS</t>
   </si>
   <si>
     <t xml:space="preserve">11790</t>
@@ -1732,6 +1732,9 @@
     <t xml:space="preserve">[VSD3318] LED PREMIUM SMD DICROICA - 7W GU10 38º 6000K</t>
   </si>
   <si>
+    <t xml:space="preserve">TIRAS LED</t>
+  </si>
+  <si>
     <t xml:space="preserve">212144</t>
   </si>
   <si>
@@ -1928,6 +1931,9 @@
   </si>
   <si>
     <t xml:space="preserve">[VSD6340] GU10 FITTING CUADRADO BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRAS LED PRO SAMSUNG</t>
   </si>
   <si>
     <t xml:space="preserve">324</t>
@@ -2413,7 +2419,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2435,7 +2441,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF3838"/>
+        <bgColor rgb="FF800000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2528,12 +2534,6 @@
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3838"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
@@ -2610,7 +2610,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2727,20 +2727,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2801,7 +2797,7 @@
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF3838"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFA6A6A6"/>
       <rgbColor rgb="FF003366"/>
@@ -2996,15 +2992,15 @@
   </sheetPr>
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A337" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A352" activeCellId="0" sqref="A352"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B159" activeCellId="0" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="47.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="132.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="43.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
@@ -3957,3294 +3953,3505 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="29" t="s">
+      <c r="A119" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="B119" s="30" t="s">
         <v>38</v>
       </c>
+      <c r="C119" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C120" s="29" t="s">
+      <c r="A120" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" s="30" t="s">
         <v>40</v>
       </c>
+      <c r="C120" s="30" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="29" t="s">
+      <c r="A121" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="30" t="s">
         <v>42</v>
       </c>
+      <c r="C121" s="30" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C122" s="29" t="s">
+      <c r="B122" s="30" t="s">
         <v>44</v>
       </c>
+      <c r="C122" s="30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C123" s="29" t="s">
+      <c r="B123" s="30" t="s">
         <v>46</v>
       </c>
+      <c r="C123" s="30" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124" s="29" t="s">
+      <c r="B124" s="30" t="s">
         <v>48</v>
       </c>
+      <c r="C124" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" s="29" t="s">
+      <c r="A125" s="31" t="s">
         <v>50</v>
       </c>
+      <c r="B125" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>52</v>
+      <c r="A126" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>54</v>
+      <c r="A127" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="29" t="s">
+      <c r="A128" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C128" s="29" t="s">
-        <v>56</v>
+      <c r="B128" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>58</v>
+      <c r="B129" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>60</v>
+      <c r="A130" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C131" s="29" t="s">
-        <v>62</v>
+      <c r="A131" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" s="29" t="s">
-        <v>64</v>
+      <c r="A132" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133" s="29" t="s">
-        <v>66</v>
+      <c r="A133" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C134" s="29" t="s">
-        <v>68</v>
+      <c r="A134" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C135" s="29" t="s">
-        <v>70</v>
+      <c r="A135" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C136" s="29" t="s">
-        <v>72</v>
+      <c r="A136" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" s="29" t="s">
-        <v>74</v>
+      <c r="A137" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B138" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C138" s="29" t="s">
-        <v>77</v>
+      <c r="A138" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C139" s="29" t="s">
-        <v>79</v>
+      <c r="B139" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C140" s="29" t="s">
-        <v>81</v>
+      <c r="B140" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C141" s="29" t="s">
-        <v>83</v>
+      <c r="B141" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C142" s="29" t="s">
-        <v>85</v>
+      <c r="B142" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C143" s="29" t="s">
-        <v>87</v>
+      <c r="B143" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C144" s="29" t="s">
-        <v>89</v>
+      <c r="B144" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C145" s="29" t="s">
-        <v>91</v>
+      <c r="B145" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B146" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C146" s="29" t="s">
-        <v>93</v>
+      <c r="B146" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C147" s="29" t="s">
-        <v>95</v>
+      <c r="B147" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148" s="29" t="s">
-        <v>97</v>
+      <c r="B148" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B149" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C149" s="29" t="s">
-        <v>100</v>
+      <c r="A149" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C150" s="29" t="s">
-        <v>102</v>
+      <c r="A150" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B151" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C151" s="29" t="s">
-        <v>104</v>
+      <c r="A151" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B152" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C152" s="29" t="s">
-        <v>106</v>
+      <c r="A152" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B153" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>108</v>
+      <c r="A153" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C154" s="29" t="s">
-        <v>110</v>
+      <c r="B154" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C155" s="29" t="s">
-        <v>112</v>
+      <c r="B155" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>114</v>
+      <c r="B156" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C157" s="29" t="s">
-        <v>116</v>
+      <c r="B157" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C158" s="29" t="s">
-        <v>118</v>
+      <c r="B158" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B159" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C159" s="29" t="s">
-        <v>120</v>
+      <c r="B159" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B160" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C160" s="29" t="s">
-        <v>122</v>
+      <c r="B160" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="30" t="s">
+      <c r="A161" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B161" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C161" s="29" t="s">
-        <v>124</v>
+      <c r="B161" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>126</v>
+      <c r="B162" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C163" s="29" t="s">
-        <v>128</v>
+      <c r="B163" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B164" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C164" s="29" t="s">
+      <c r="A164" s="29" t="s">
         <v>131</v>
       </c>
+      <c r="B164" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B165" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C165" s="29" t="s">
-        <v>133</v>
+      <c r="A165" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B166" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C166" s="29" t="s">
-        <v>135</v>
+      <c r="A166" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="30" t="s">
+      <c r="A167" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B167" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C167" s="29" t="s">
-        <v>137</v>
+      <c r="B167" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B168" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>139</v>
+      <c r="A168" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B169" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C169" s="29" t="s">
-        <v>141</v>
+      <c r="A169" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="30" t="s">
+      <c r="A170" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B170" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C170" s="29" t="s">
-        <v>143</v>
+      <c r="B170" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="30" t="s">
+      <c r="A171" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B171" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C171" s="29" t="s">
-        <v>145</v>
+      <c r="B171" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C171" s="30" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="30" t="s">
+      <c r="A172" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B172" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C172" s="29" t="s">
-        <v>147</v>
+      <c r="B172" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C173" s="29" t="s">
-        <v>149</v>
+      <c r="B173" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C174" s="29" t="s">
-        <v>151</v>
+      <c r="B174" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>153</v>
+      <c r="B175" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>155</v>
+      <c r="B176" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C177" s="29" t="s">
-        <v>157</v>
+      <c r="B177" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B178" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C178" s="29" t="s">
-        <v>159</v>
+      <c r="B178" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C179" s="29" t="s">
-        <v>161</v>
+      <c r="B179" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B180" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C180" s="29" t="s">
-        <v>163</v>
+      <c r="B180" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C181" s="29" t="s">
-        <v>165</v>
+      <c r="B181" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C182" s="29" t="s">
-        <v>167</v>
+      <c r="B182" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C183" s="29" t="s">
-        <v>169</v>
+      <c r="B183" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C184" s="29" t="s">
-        <v>171</v>
+      <c r="B184" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C185" s="29" t="s">
-        <v>173</v>
+      <c r="B185" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B186" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C186" s="29" t="s">
-        <v>175</v>
+      <c r="B186" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B187" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C187" s="29" t="s">
+      <c r="A187" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B187" s="30" t="s">
         <v>178</v>
       </c>
+      <c r="C187" s="30" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B188" s="29" t="s">
+      <c r="A188" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C188" s="29" t="s">
+      <c r="B188" s="30" t="s">
         <v>181</v>
       </c>
+      <c r="C188" s="30" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B189" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C189" s="29" t="s">
+      <c r="A189" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B189" s="30" t="s">
         <v>183</v>
       </c>
+      <c r="C189" s="30" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B190" s="29" t="s">
+      <c r="A190" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="29" t="s">
+      <c r="B190" s="30" t="s">
         <v>186</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C191" s="29" t="s">
+      <c r="B191" s="30" t="s">
         <v>188</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B192" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C192" s="29" t="s">
+      <c r="B192" s="30" t="s">
         <v>190</v>
       </c>
+      <c r="C192" s="30" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B193" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C193" s="29" t="s">
+      <c r="A193" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B193" s="30" t="s">
         <v>192</v>
       </c>
+      <c r="C193" s="30" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0"/>
-      <c r="B194" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C194" s="29" t="s">
+      <c r="B194" s="30" t="s">
         <v>194</v>
       </c>
+      <c r="C194" s="30" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0"/>
-      <c r="B195" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C195" s="29" t="s">
+      <c r="B195" s="30" t="s">
         <v>196</v>
       </c>
+      <c r="C195" s="30" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0"/>
-      <c r="B196" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C196" s="29" t="s">
+      <c r="B196" s="30" t="s">
         <v>198</v>
       </c>
+      <c r="C196" s="30" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0"/>
-      <c r="B197" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C197" s="29" t="s">
+      <c r="B197" s="30" t="s">
         <v>200</v>
       </c>
+      <c r="C197" s="30" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="30" t="s">
+      <c r="A198" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B198" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C198" s="29" t="s">
+      <c r="B198" s="30" t="s">
         <v>202</v>
       </c>
+      <c r="C198" s="30" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="30" t="s">
+      <c r="A199" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B199" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C199" s="29" t="s">
+      <c r="B199" s="30" t="s">
         <v>204</v>
       </c>
+      <c r="C199" s="30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B200" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C200" s="29" t="s">
+      <c r="B200" s="30" t="s">
         <v>206</v>
       </c>
+      <c r="C200" s="30" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="30" t="s">
+      <c r="A201" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B201" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C201" s="29" t="s">
+      <c r="B201" s="30" t="s">
         <v>208</v>
       </c>
+      <c r="C201" s="30" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="30" t="s">
+      <c r="A202" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B202" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C202" s="29" t="s">
+      <c r="B202" s="30" t="s">
         <v>210</v>
       </c>
+      <c r="C202" s="30" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="30" t="s">
+      <c r="A203" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B203" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C203" s="29" t="s">
+      <c r="B203" s="30" t="s">
         <v>212</v>
       </c>
+      <c r="C203" s="30" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="30" t="s">
+      <c r="A204" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B204" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C204" s="29" t="s">
+      <c r="B204" s="30" t="s">
         <v>214</v>
       </c>
+      <c r="C204" s="30" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B205" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C205" s="29" t="s">
+      <c r="A205" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B205" s="30" t="s">
         <v>216</v>
       </c>
+      <c r="C205" s="30" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B206" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C206" s="29" t="s">
+      <c r="A206" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B206" s="30" t="s">
         <v>218</v>
       </c>
+      <c r="C206" s="30" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B207" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C207" s="29" t="s">
+      <c r="A207" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B207" s="30" t="s">
         <v>220</v>
       </c>
+      <c r="C207" s="30" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="30" t="s">
+      <c r="A208" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B208" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C208" s="29" t="s">
+      <c r="B208" s="30" t="s">
         <v>222</v>
       </c>
+      <c r="C208" s="30" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="30" t="s">
+      <c r="A209" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B209" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="C209" s="29" t="s">
+      <c r="B209" s="30" t="s">
         <v>224</v>
       </c>
+      <c r="C209" s="30" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C210" s="29" t="s">
+      <c r="B210" s="30" t="s">
         <v>226</v>
       </c>
+      <c r="C210" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="30" t="s">
+      <c r="A211" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B211" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C211" s="29" t="s">
+      <c r="B211" s="30" t="s">
         <v>228</v>
       </c>
+      <c r="C211" s="30" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B212" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C212" s="29" t="s">
+      <c r="A212" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B212" s="30" t="s">
         <v>230</v>
       </c>
+      <c r="C212" s="30" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="30" t="s">
+      <c r="A213" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C213" s="29" t="s">
+      <c r="B213" s="30" t="s">
         <v>232</v>
       </c>
+      <c r="C213" s="30" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="30" t="s">
+      <c r="A214" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B214" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C214" s="29" t="s">
+      <c r="B214" s="30" t="s">
         <v>234</v>
       </c>
+      <c r="C214" s="30" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B215" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C215" s="29" t="s">
+      <c r="A215" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="30" t="s">
         <v>236</v>
       </c>
+      <c r="C215" s="30" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="30" t="s">
+      <c r="A216" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B216" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="C216" s="29" t="s">
+      <c r="B216" s="30" t="s">
         <v>238</v>
       </c>
+      <c r="C216" s="30" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="30" t="s">
+      <c r="A217" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B217" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C217" s="29" t="s">
+      <c r="B217" s="30" t="s">
         <v>240</v>
+      </c>
+      <c r="C217" s="30" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C218" s="29" t="s">
+      <c r="B218" s="30" t="s">
         <v>242</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B219" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C219" s="29" t="s">
+      <c r="B219" s="30" t="s">
         <v>244</v>
+      </c>
+      <c r="C219" s="30" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B220" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C220" s="29" t="s">
+      <c r="B220" s="30" t="s">
         <v>246</v>
       </c>
+      <c r="C220" s="30" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B221" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="C221" s="29" t="s">
+      <c r="B221" s="30" t="s">
         <v>248</v>
       </c>
+      <c r="C221" s="30" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B222" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="C222" s="29" t="s">
+      <c r="B222" s="30" t="s">
         <v>250</v>
       </c>
+      <c r="C222" s="30" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B223" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C223" s="29" t="s">
+      <c r="B223" s="30" t="s">
         <v>252</v>
       </c>
+      <c r="C223" s="30" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C224" s="29" t="s">
+      <c r="B224" s="30" t="s">
         <v>254</v>
       </c>
+      <c r="C224" s="30" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B225" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C225" s="29" t="s">
+      <c r="B225" s="30" t="s">
         <v>256</v>
       </c>
+      <c r="C225" s="30" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B226" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C226" s="29" t="s">
+      <c r="B226" s="30" t="s">
         <v>258</v>
       </c>
+      <c r="C226" s="30" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B227" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C227" s="29" t="s">
+      <c r="B227" s="30" t="s">
         <v>260</v>
+      </c>
+      <c r="C227" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B228" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C228" s="29" t="s">
+      <c r="B228" s="30" t="s">
         <v>262</v>
       </c>
+      <c r="C228" s="30" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B229" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="C229" s="29" t="s">
+      <c r="A229" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B229" s="30" t="s">
         <v>264</v>
       </c>
+      <c r="C229" s="30" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B230" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C230" s="29" t="s">
+      <c r="A230" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B230" s="30" t="s">
         <v>266</v>
       </c>
+      <c r="C230" s="30" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B231" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="C231" s="29" t="s">
+      <c r="A231" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B231" s="30" t="s">
         <v>268</v>
       </c>
+      <c r="C231" s="30" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="30" t="s">
+      <c r="A232" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B232" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C232" s="29" t="s">
+      <c r="B232" s="30" t="s">
         <v>270</v>
       </c>
+      <c r="C232" s="30" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="B233" s="29" t="s">
+      <c r="A233" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C233" s="29" t="s">
+      <c r="B233" s="30" t="s">
         <v>273</v>
       </c>
+      <c r="C233" s="30" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="B234" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C234" s="29" t="s">
+      <c r="A234" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B234" s="30" t="s">
         <v>275</v>
       </c>
+      <c r="C234" s="30" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B235" s="29" t="s">
+      <c r="A235" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="C235" s="29" t="s">
+      <c r="B235" s="30" t="s">
         <v>278</v>
       </c>
+      <c r="C235" s="30" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B236" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="C236" s="29" t="s">
+      <c r="A236" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B236" s="30" t="s">
         <v>280</v>
       </c>
+      <c r="C236" s="30" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B237" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="C237" s="29" t="s">
+      <c r="A237" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B237" s="30" t="s">
         <v>282</v>
       </c>
+      <c r="C237" s="30" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B238" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C238" s="29" t="s">
+      <c r="A238" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B238" s="30" t="s">
         <v>284</v>
       </c>
+      <c r="C238" s="30" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="30" t="s">
+      <c r="A239" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B239" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C239" s="29" t="s">
+      <c r="B239" s="30" t="s">
         <v>286</v>
       </c>
+      <c r="C239" s="30" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="30" t="s">
+      <c r="A240" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B240" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C240" s="29" t="s">
+      <c r="B240" s="30" t="s">
         <v>288</v>
       </c>
+      <c r="C240" s="30" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="30" t="s">
+      <c r="A241" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B241" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="C241" s="29" t="s">
+      <c r="B241" s="30" t="s">
         <v>290</v>
       </c>
+      <c r="C241" s="30" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="30" t="s">
+      <c r="A242" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B242" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C242" s="29" t="s">
+      <c r="B242" s="30" t="s">
         <v>292</v>
       </c>
+      <c r="C242" s="30" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="30" t="s">
+      <c r="A243" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B243" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C243" s="29" t="s">
+      <c r="B243" s="30" t="s">
         <v>294</v>
       </c>
+      <c r="C243" s="30" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="30" t="s">
+      <c r="A244" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B244" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C244" s="29" t="s">
+      <c r="B244" s="30" t="s">
         <v>296</v>
       </c>
+      <c r="C244" s="30" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="30" t="s">
+      <c r="A245" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B245" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C245" s="29" t="s">
+      <c r="B245" s="30" t="s">
         <v>298</v>
       </c>
+      <c r="C245" s="30" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="30" t="s">
+      <c r="A246" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B246" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C246" s="29" t="s">
+      <c r="B246" s="30" t="s">
         <v>300</v>
       </c>
+      <c r="C246" s="30" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0"/>
-      <c r="B247" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C247" s="29" t="s">
+      <c r="B247" s="30" t="s">
         <v>302</v>
       </c>
+      <c r="C247" s="30" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="30" t="s">
+      <c r="A248" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B248" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="C248" s="29" t="s">
+      <c r="B248" s="30" t="s">
         <v>304</v>
       </c>
+      <c r="C248" s="30" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="30" t="s">
+      <c r="A249" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B249" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C249" s="29" t="s">
+      <c r="B249" s="30" t="s">
         <v>306</v>
       </c>
+      <c r="C249" s="30" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="30" t="s">
+      <c r="A250" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B250" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C250" s="29" t="s">
+      <c r="B250" s="30" t="s">
         <v>308</v>
       </c>
+      <c r="C250" s="30" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="30" t="s">
+      <c r="A251" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B251" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C251" s="29" t="s">
+      <c r="B251" s="30" t="s">
         <v>310</v>
       </c>
+      <c r="C251" s="30" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="30" t="s">
+      <c r="A252" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B252" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="C252" s="29" t="s">
+      <c r="B252" s="30" t="s">
         <v>312</v>
       </c>
+      <c r="C252" s="30" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="30" t="s">
+      <c r="A253" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B253" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="C253" s="29" t="s">
+      <c r="B253" s="30" t="s">
         <v>314</v>
       </c>
+      <c r="C253" s="30" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="30" t="s">
+      <c r="A254" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B254" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="C254" s="29" t="s">
+      <c r="B254" s="30" t="s">
         <v>316</v>
       </c>
+      <c r="C254" s="30" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B255" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="C255" s="29" t="s">
+      <c r="B255" s="30" t="s">
         <v>318</v>
       </c>
+      <c r="C255" s="30" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B256" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="C256" s="29" t="s">
+      <c r="B256" s="30" t="s">
         <v>320</v>
       </c>
+      <c r="C256" s="30" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="30" t="s">
+      <c r="A257" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B257" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="C257" s="29" t="s">
+      <c r="B257" s="30" t="s">
         <v>322</v>
       </c>
+      <c r="C257" s="30" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B258" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="C258" s="29" t="s">
+      <c r="B258" s="30" t="s">
         <v>324</v>
       </c>
+      <c r="C258" s="30" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B259" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="C259" s="29" t="s">
+      <c r="B259" s="30" t="s">
         <v>326</v>
       </c>
+      <c r="C259" s="30" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B260" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C260" s="29" t="s">
+      <c r="B260" s="30" t="s">
         <v>328</v>
       </c>
+      <c r="C260" s="30" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B261" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="C261" s="29" t="s">
+      <c r="B261" s="30" t="s">
         <v>330</v>
       </c>
+      <c r="C261" s="30" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="30" t="s">
+      <c r="A262" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B262" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="C262" s="29" t="s">
+      <c r="B262" s="30" t="s">
         <v>332</v>
       </c>
+      <c r="C262" s="30" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="30" t="s">
+      <c r="A263" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B263" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="C263" s="29" t="s">
+      <c r="B263" s="30" t="s">
         <v>334</v>
       </c>
+      <c r="C263" s="30" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="30" t="s">
+      <c r="A264" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B264" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="C264" s="29" t="s">
+      <c r="B264" s="30" t="s">
         <v>336</v>
       </c>
+      <c r="C264" s="30" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="30" t="s">
+      <c r="A265" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B265" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="C265" s="29" t="s">
+      <c r="B265" s="30" t="s">
         <v>338</v>
       </c>
+      <c r="C265" s="30" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="30" t="s">
+      <c r="A266" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B266" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="C266" s="29" t="s">
+      <c r="B266" s="30" t="s">
         <v>340</v>
       </c>
+      <c r="C266" s="30" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B267" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="C267" s="29" t="s">
+      <c r="B267" s="30" t="s">
         <v>342</v>
       </c>
+      <c r="C267" s="30" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B268" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C268" s="29" t="s">
+      <c r="B268" s="30" t="s">
         <v>344</v>
       </c>
+      <c r="C268" s="30" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B269" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="C269" s="29" t="s">
+      <c r="B269" s="30" t="s">
         <v>346</v>
       </c>
+      <c r="C269" s="30" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B270" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="C270" s="29" t="s">
+      <c r="B270" s="30" t="s">
         <v>348</v>
       </c>
+      <c r="C270" s="30" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B271" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="C271" s="29" t="s">
+      <c r="B271" s="30" t="s">
         <v>350</v>
       </c>
+      <c r="C271" s="30" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B272" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="C272" s="29" t="s">
+      <c r="A272" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B272" s="30" t="s">
         <v>352</v>
       </c>
+      <c r="C272" s="30" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B273" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="C273" s="29" t="s">
+      <c r="A273" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B273" s="30" t="s">
         <v>354</v>
       </c>
+      <c r="C273" s="30" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B274" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="C274" s="29" t="s">
+      <c r="A274" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B274" s="30" t="s">
         <v>356</v>
       </c>
+      <c r="C274" s="30" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B275" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="C275" s="29" t="s">
+      <c r="A275" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B275" s="30" t="s">
         <v>358</v>
       </c>
+      <c r="C275" s="30" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B276" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C276" s="29" t="s">
+      <c r="A276" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B276" s="30" t="s">
         <v>360</v>
       </c>
+      <c r="C276" s="30" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B277" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="C277" s="29" t="s">
+      <c r="A277" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B277" s="30" t="s">
         <v>362</v>
       </c>
+      <c r="C277" s="30" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B278" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="C278" s="29" t="s">
+      <c r="A278" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B278" s="30" t="s">
         <v>364</v>
       </c>
+      <c r="C278" s="30" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B279" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="C279" s="29" t="s">
+      <c r="A279" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B279" s="30" t="s">
         <v>366</v>
       </c>
+      <c r="C279" s="30" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="B280" s="29" t="s">
+      <c r="A280" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C280" s="29" t="s">
+      <c r="B280" s="30" t="s">
         <v>369</v>
       </c>
+      <c r="C280" s="30" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B281" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="C281" s="29" t="s">
+      <c r="B281" s="30" t="s">
         <v>371</v>
       </c>
+      <c r="C281" s="30" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B282" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="C282" s="29" t="s">
+      <c r="B282" s="30" t="s">
         <v>373</v>
       </c>
+      <c r="C282" s="30" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B283" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="C283" s="29" t="s">
+      <c r="B283" s="30" t="s">
         <v>375</v>
       </c>
+      <c r="C283" s="30" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B284" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="C284" s="29" t="s">
+      <c r="B284" s="30" t="s">
         <v>377</v>
       </c>
+      <c r="C284" s="30" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B285" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="C285" s="29" t="s">
+      <c r="B285" s="30" t="s">
         <v>379</v>
       </c>
+      <c r="C285" s="30" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B286" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="C286" s="29" t="s">
+      <c r="B286" s="30" t="s">
         <v>381</v>
       </c>
+      <c r="C286" s="30" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B287" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="C287" s="29" t="s">
+      <c r="B287" s="30" t="s">
         <v>383</v>
       </c>
+      <c r="C287" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B288" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="C288" s="29" t="s">
+      <c r="B288" s="30" t="s">
         <v>385</v>
       </c>
+      <c r="C288" s="30" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B289" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="C289" s="29" t="s">
+      <c r="B289" s="30" t="s">
         <v>387</v>
       </c>
+      <c r="C289" s="30" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B290" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="C290" s="29" t="s">
+      <c r="B290" s="30" t="s">
         <v>389</v>
       </c>
+      <c r="C290" s="30" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B291" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="C291" s="29" t="s">
+      <c r="B291" s="30" t="s">
         <v>391</v>
       </c>
+      <c r="C291" s="30" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B292" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="C292" s="29" t="s">
+      <c r="B292" s="30" t="s">
         <v>393</v>
       </c>
+      <c r="C292" s="30" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B293" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="C293" s="29" t="s">
+      <c r="B293" s="30" t="s">
         <v>395</v>
       </c>
+      <c r="C293" s="30" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B294" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="C294" s="29" t="s">
+      <c r="B294" s="30" t="s">
         <v>397</v>
       </c>
+      <c r="C294" s="30" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B295" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="C295" s="29" t="s">
+      <c r="A295" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B295" s="30" t="s">
         <v>399</v>
       </c>
+      <c r="C295" s="30" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B296" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="C296" s="29" t="s">
+      <c r="A296" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B296" s="30" t="s">
         <v>401</v>
       </c>
+      <c r="C296" s="30" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B297" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="C297" s="29" t="s">
+      <c r="A297" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B297" s="30" t="s">
         <v>403</v>
       </c>
+      <c r="C297" s="30" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B298" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="C298" s="29" t="s">
+      <c r="A298" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B298" s="30" t="s">
         <v>405</v>
       </c>
+      <c r="C298" s="30" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B299" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="C299" s="29" t="s">
+      <c r="A299" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B299" s="30" t="s">
         <v>407</v>
       </c>
+      <c r="C299" s="30" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B300" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="C300" s="29" t="s">
+      <c r="A300" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B300" s="30" t="s">
         <v>409</v>
       </c>
+      <c r="C300" s="30" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B301" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="C301" s="29" t="s">
+      <c r="A301" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B301" s="30" t="s">
         <v>411</v>
       </c>
+      <c r="C301" s="30" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B302" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="C302" s="29" t="s">
+      <c r="A302" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B302" s="30" t="s">
         <v>413</v>
       </c>
+      <c r="C302" s="30" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B303" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="C303" s="29" t="s">
+      <c r="B303" s="30" t="s">
         <v>415</v>
       </c>
+      <c r="C303" s="30" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B304" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C304" s="29" t="s">
+      <c r="B304" s="30" t="s">
         <v>417</v>
       </c>
+      <c r="C304" s="30" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B305" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="C305" s="29" t="s">
+      <c r="B305" s="30" t="s">
         <v>419</v>
       </c>
+      <c r="C305" s="30" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B306" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="C306" s="29" t="s">
+      <c r="B306" s="30" t="s">
         <v>421</v>
       </c>
+      <c r="C306" s="30" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B307" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="C307" s="29" t="s">
+      <c r="B307" s="30" t="s">
         <v>423</v>
       </c>
+      <c r="C307" s="30" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B308" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="C308" s="29" t="s">
+      <c r="B308" s="30" t="s">
         <v>425</v>
       </c>
+      <c r="C308" s="30" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B309" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="C309" s="29" t="s">
+      <c r="B309" s="30" t="s">
         <v>427</v>
       </c>
+      <c r="C309" s="30" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="B310" s="29" t="s">
+      <c r="A310" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B310" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="C310" s="29" t="s">
+      <c r="C310" s="30" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="32" t="s">
+      <c r="A311" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B311" s="29" t="s">
+      <c r="B311" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="C311" s="29" t="s">
+      <c r="C311" s="30" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B312" s="29" t="s">
+      <c r="B312" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C312" s="29" t="s">
+      <c r="C312" s="30" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B313" s="29" t="s">
+      <c r="B313" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="C313" s="29" t="s">
+      <c r="C313" s="30" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B314" s="29" t="s">
+      <c r="B314" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="C314" s="29" t="s">
+      <c r="C314" s="30" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B315" s="29" t="s">
+      <c r="B315" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="C315" s="29" t="s">
+      <c r="C315" s="30" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B316" s="29" t="s">
+      <c r="B316" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="C316" s="29" t="s">
+      <c r="C316" s="30" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="32" t="s">
+      <c r="A317" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B317" s="29" t="s">
+      <c r="B317" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="C317" s="29" t="s">
+      <c r="C317" s="30" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="32" t="s">
+      <c r="A318" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B318" s="29" t="s">
+      <c r="B318" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="C318" s="29" t="s">
+      <c r="C318" s="30" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="32" t="s">
+      <c r="A319" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B319" s="29" t="s">
+      <c r="B319" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="C319" s="29" t="s">
+      <c r="C319" s="30" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="32" t="s">
+      <c r="A320" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B320" s="29" t="s">
+      <c r="B320" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="C320" s="29" t="s">
+      <c r="C320" s="30" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B321" s="29" t="s">
+      <c r="B321" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="C321" s="29" t="s">
+      <c r="C321" s="30" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="32" t="s">
+      <c r="A322" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B322" s="29" t="s">
+      <c r="B322" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="C322" s="29" t="s">
+      <c r="C322" s="30" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B323" s="29" t="s">
+      <c r="B323" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="C323" s="29" t="s">
+      <c r="C323" s="30" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="32" t="s">
+      <c r="A324" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B324" s="29" t="s">
+      <c r="B324" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="C324" s="29" t="s">
+      <c r="C324" s="30" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="32" t="s">
+      <c r="A325" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B325" s="29" t="s">
+      <c r="B325" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="C325" s="29" t="s">
+      <c r="C325" s="30" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="32" t="s">
+      <c r="A326" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B326" s="29" t="s">
+      <c r="B326" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="C326" s="29" t="s">
+      <c r="C326" s="30" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="32" t="s">
+      <c r="A327" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B327" s="29" t="s">
+      <c r="B327" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="C327" s="29" t="s">
+      <c r="C327" s="30" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="32" t="s">
+      <c r="A328" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B328" s="29" t="s">
+      <c r="B328" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="C328" s="29" t="s">
+      <c r="C328" s="30" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="32" t="s">
+      <c r="A329" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B329" s="29" t="s">
+      <c r="B329" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="C329" s="29" t="s">
+      <c r="C329" s="30" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B330" s="29" t="s">
+      <c r="A330" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B330" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="C330" s="29" t="s">
+      <c r="C330" s="30" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B331" s="29" t="s">
+      <c r="B331" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="C331" s="29" t="s">
+      <c r="C331" s="30" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B332" s="29" t="s">
+      <c r="B332" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="C332" s="29" t="s">
+      <c r="C332" s="30" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B333" s="29" t="s">
+      <c r="B333" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="C333" s="29" t="s">
+      <c r="C333" s="30" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B334" s="29" t="s">
+      <c r="B334" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="C334" s="29" t="s">
+      <c r="C334" s="30" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="32" t="s">
+      <c r="A335" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B335" s="29" t="s">
+      <c r="B335" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="C335" s="29" t="s">
+      <c r="C335" s="30" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B336" s="29" t="s">
+      <c r="B336" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="C336" s="29" t="s">
+      <c r="C336" s="30" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B337" s="29" t="s">
+      <c r="B337" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="C337" s="29" t="s">
+      <c r="C337" s="30" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B338" s="29" t="s">
+      <c r="B338" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="C338" s="29" t="s">
+      <c r="C338" s="30" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B339" s="29" t="s">
+      <c r="B339" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="C339" s="29" t="s">
+      <c r="C339" s="30" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B340" s="29" t="s">
+      <c r="B340" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="C340" s="29" t="s">
+      <c r="C340" s="30" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B341" s="29" t="s">
+      <c r="B341" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="C341" s="29" t="s">
+      <c r="C341" s="30" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B342" s="29" t="s">
+      <c r="B342" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="C342" s="29" t="s">
+      <c r="C342" s="30" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B343" s="29" t="s">
+      <c r="B343" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="C343" s="29" t="s">
+      <c r="C343" s="30" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B344" s="29" t="s">
+      <c r="B344" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="C344" s="29" t="s">
+      <c r="C344" s="30" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B345" s="29" t="s">
+      <c r="B345" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="C345" s="29" t="s">
+      <c r="C345" s="30" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B346" s="29" t="s">
+      <c r="B346" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="C346" s="29" t="s">
+      <c r="C346" s="30" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B347" s="29" t="s">
+      <c r="B347" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="C347" s="29" t="s">
+      <c r="C347" s="30" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B348" s="29" t="s">
+      <c r="B348" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="C348" s="29" t="s">
+      <c r="C348" s="30" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B349" s="29" t="s">
+      <c r="B349" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="C349" s="29" t="s">
+      <c r="C349" s="30" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B350" s="29" t="s">
+      <c r="B350" s="30" t="s">
         <v>510</v>
       </c>
-      <c r="C350" s="29" t="s">
+      <c r="C350" s="30" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B351" s="29" t="s">
+      <c r="B351" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="C351" s="29" t="s">
+      <c r="C351" s="30" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B352" s="29" t="s">
+      <c r="B352" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="C352" s="29" t="s">
+      <c r="C352" s="30" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B353" s="29" t="s">
+      <c r="B353" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="C353" s="29" t="s">
+      <c r="C353" s="30" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B354" s="29" t="s">
+      <c r="B354" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="C354" s="29" t="s">
+      <c r="C354" s="30" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B355" s="29" t="s">
+      <c r="B355" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="C355" s="29" t="s">
+      <c r="C355" s="30" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B356" s="29" t="s">
+      <c r="B356" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="C356" s="29" t="s">
+      <c r="C356" s="30" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B357" s="29" t="s">
+      <c r="B357" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="C357" s="29" t="s">
+      <c r="C357" s="30" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B358" s="29" t="s">
+      <c r="B358" s="30" t="s">
         <v>526</v>
       </c>
-      <c r="C358" s="29" t="s">
+      <c r="C358" s="30" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B359" s="29" t="s">
+      <c r="B359" s="30" t="s">
         <v>528</v>
       </c>
-      <c r="C359" s="29" t="s">
+      <c r="C359" s="30" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B360" s="29" t="s">
+      <c r="B360" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="C360" s="29" t="s">
+      <c r="C360" s="30" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B361" s="29" t="s">
+      <c r="B361" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="C361" s="29" t="s">
+      <c r="C361" s="30" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B362" s="29" t="s">
+      <c r="B362" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="C362" s="29" t="s">
+      <c r="C362" s="30" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B363" s="29" t="s">
+      <c r="B363" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C363" s="29" t="s">
+      <c r="C363" s="30" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B364" s="29" t="s">
+      <c r="B364" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="C364" s="29" t="s">
+      <c r="C364" s="30" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B365" s="29" t="s">
+      <c r="B365" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="C365" s="29" t="s">
+      <c r="C365" s="30" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B366" s="29" t="s">
+      <c r="B366" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="C366" s="29" t="s">
+      <c r="C366" s="30" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B367" s="29" t="s">
+      <c r="B367" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="C367" s="29" t="s">
+      <c r="C367" s="30" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B368" s="29" t="s">
+      <c r="B368" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="C368" s="29" t="s">
+      <c r="C368" s="30" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B369" s="29" t="s">
+      <c r="A369" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B369" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="C369" s="29" t="s">
+      <c r="C369" s="30" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B370" s="29" t="s">
+      <c r="A370" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B370" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="C370" s="29" t="s">
+      <c r="C370" s="30" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B371" s="29" t="s">
+      <c r="A371" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="C371" s="29" t="s">
+      <c r="C371" s="30" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B372" s="29" t="s">
+      <c r="A372" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="C372" s="29" t="s">
+      <c r="C372" s="30" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B373" s="29" t="s">
+      <c r="A373" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="C373" s="29" t="s">
+      <c r="C373" s="30" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B374" s="29" t="s">
+      <c r="A374" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B374" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="C374" s="29" t="s">
+      <c r="C374" s="30" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B375" s="29" t="s">
+      <c r="A375" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B375" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="C375" s="29" t="s">
+      <c r="C375" s="30" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B376" s="29" t="s">
+      <c r="A376" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B376" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="C376" s="29" t="s">
+      <c r="C376" s="30" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B377" s="29" t="s">
+      <c r="A377" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B377" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="C377" s="29" t="s">
+      <c r="C377" s="30" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B378" s="29" t="s">
+      <c r="A378" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B378" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="C378" s="29" t="s">
+      <c r="C378" s="30" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B379" s="29" t="s">
+      <c r="A379" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B379" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="C379" s="29" t="s">
+      <c r="C379" s="30" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B380" s="29" t="s">
+      <c r="A380" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="C380" s="29" t="s">
+      <c r="B380" s="30" t="s">
         <v>571</v>
       </c>
+      <c r="C380" s="30" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B381" s="29" t="s">
-        <v>572</v>
-      </c>
-      <c r="C381" s="29" t="s">
+      <c r="B381" s="30" t="s">
         <v>573</v>
       </c>
+      <c r="C381" s="30" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B382" s="29" t="s">
-        <v>574</v>
-      </c>
-      <c r="C382" s="29" t="s">
+      <c r="B382" s="30" t="s">
         <v>575</v>
       </c>
+      <c r="C382" s="30" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B383" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="C383" s="29" t="s">
+      <c r="B383" s="30" t="s">
         <v>577</v>
       </c>
+      <c r="C383" s="30" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B384" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="C384" s="29" t="s">
+      <c r="B384" s="30" t="s">
         <v>579</v>
       </c>
+      <c r="C384" s="30" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B385" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="C385" s="29" t="s">
+      <c r="B385" s="30" t="s">
         <v>581</v>
       </c>
+      <c r="C385" s="30" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B386" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="C386" s="29" t="s">
+      <c r="B386" s="30" t="s">
         <v>583</v>
       </c>
+      <c r="C386" s="30" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B387" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="C387" s="29" t="s">
+      <c r="B387" s="30" t="s">
         <v>585</v>
       </c>
+      <c r="C387" s="30" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B388" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="C388" s="29" t="s">
+      <c r="B388" s="30" t="s">
         <v>587</v>
       </c>
+      <c r="C388" s="30" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B389" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="C389" s="29" t="s">
+      <c r="B389" s="30" t="s">
         <v>589</v>
       </c>
+      <c r="C389" s="30" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B390" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="C390" s="29" t="s">
+      <c r="A390" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B390" s="30" t="s">
         <v>591</v>
       </c>
+      <c r="C390" s="30" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B391" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="C391" s="29" t="s">
+      <c r="A391" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B391" s="30" t="s">
         <v>593</v>
       </c>
+      <c r="C391" s="30" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B392" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="C392" s="29" t="s">
+      <c r="A392" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B392" s="30" t="s">
         <v>595</v>
       </c>
+      <c r="C392" s="30" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B393" s="29" t="s">
-        <v>596</v>
-      </c>
-      <c r="C393" s="29" t="s">
+      <c r="A393" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B393" s="30" t="s">
         <v>597</v>
       </c>
+      <c r="C393" s="30" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B394" s="29" t="s">
-        <v>598</v>
-      </c>
-      <c r="C394" s="29" t="s">
+      <c r="A394" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B394" s="30" t="s">
         <v>599</v>
       </c>
+      <c r="C394" s="30" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B395" s="29" t="s">
-        <v>600</v>
-      </c>
-      <c r="C395" s="29" t="s">
+      <c r="A395" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B395" s="30" t="s">
         <v>601</v>
       </c>
+      <c r="C395" s="30" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B396" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="C396" s="29" t="s">
+      <c r="A396" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B396" s="30" t="s">
         <v>603</v>
       </c>
+      <c r="C396" s="30" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="397" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B397" s="29" t="s">
-        <v>604</v>
-      </c>
-      <c r="C397" s="29" t="s">
+      <c r="A397" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B397" s="30" t="s">
         <v>605</v>
       </c>
+      <c r="C397" s="30" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="398" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B398" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="C398" s="29" t="s">
+      <c r="A398" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B398" s="30" t="s">
         <v>607</v>
       </c>
+      <c r="C398" s="30" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="399" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B399" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="C399" s="29" t="s">
+      <c r="A399" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B399" s="30" t="s">
         <v>609</v>
       </c>
+      <c r="C399" s="30" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B400" s="29" t="s">
-        <v>610</v>
-      </c>
-      <c r="C400" s="29" t="s">
+      <c r="A400" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B400" s="30" t="s">
         <v>611</v>
       </c>
+      <c r="C400" s="30" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="401" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B401" s="29" t="s">
-        <v>612</v>
-      </c>
-      <c r="C401" s="29" t="s">
+      <c r="A401" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B401" s="30" t="s">
         <v>613</v>
       </c>
+      <c r="C401" s="30" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B402" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="C402" s="29" t="s">
+      <c r="A402" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B402" s="30" t="s">
         <v>615</v>
       </c>
+      <c r="C402" s="30" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B403" s="29" t="s">
-        <v>616</v>
-      </c>
-      <c r="C403" s="29" t="s">
+      <c r="A403" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B403" s="30" t="s">
         <v>617</v>
       </c>
+      <c r="C403" s="30" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B404" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="C404" s="29" t="s">
+      <c r="A404" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B404" s="30" t="s">
         <v>619</v>
       </c>
+      <c r="C404" s="30" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B405" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="C405" s="29" t="s">
+      <c r="A405" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B405" s="30" t="s">
         <v>621</v>
       </c>
+      <c r="C405" s="30" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B406" s="29" t="s">
-        <v>622</v>
-      </c>
-      <c r="C406" s="29" t="s">
+      <c r="A406" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406" s="30" t="s">
         <v>623</v>
       </c>
+      <c r="C406" s="30" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="407" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B407" s="29" t="s">
-        <v>624</v>
-      </c>
-      <c r="C407" s="29" t="s">
+      <c r="B407" s="30" t="s">
         <v>625</v>
       </c>
+      <c r="C407" s="30" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B408" s="29" t="s">
-        <v>626</v>
-      </c>
-      <c r="C408" s="29" t="s">
+      <c r="B408" s="30" t="s">
         <v>627</v>
       </c>
+      <c r="C408" s="30" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B409" s="29" t="s">
-        <v>628</v>
-      </c>
-      <c r="C409" s="29" t="s">
+      <c r="B409" s="30" t="s">
         <v>629</v>
       </c>
+      <c r="C409" s="30" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B410" s="29" t="s">
-        <v>630</v>
-      </c>
-      <c r="C410" s="29" t="s">
+      <c r="B410" s="30" t="s">
         <v>631</v>
       </c>
+      <c r="C410" s="30" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B411" s="29" t="s">
-        <v>632</v>
-      </c>
-      <c r="C411" s="29" t="s">
+      <c r="B411" s="30" t="s">
         <v>633</v>
       </c>
+      <c r="C411" s="30" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B412" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="C412" s="29" t="s">
+      <c r="B412" s="30" t="s">
         <v>635</v>
       </c>
+      <c r="C412" s="30" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="413" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B413" s="29" t="s">
-        <v>636</v>
-      </c>
-      <c r="C413" s="29" t="s">
+      <c r="A413" s="31" t="s">
         <v>637</v>
       </c>
+      <c r="B413" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="C413" s="30" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B414" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="C414" s="29" t="s">
-        <v>639</v>
+      <c r="B414" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="C414" s="30" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B415" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="C415" s="29" t="s">
-        <v>641</v>
+      <c r="B415" s="30" t="s">
+        <v>642</v>
+      </c>
+      <c r="C415" s="30" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B416" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="C416" s="29" t="s">
-        <v>643</v>
+      <c r="B416" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="C416" s="30" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B417" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="C417" s="29" t="s">
-        <v>645</v>
+      <c r="B417" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="C417" s="30" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B418" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="C418" s="29" t="s">
-        <v>647</v>
+      <c r="B418" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="C418" s="30" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B419" s="29" t="s">
-        <v>648</v>
-      </c>
-      <c r="C419" s="29" t="s">
-        <v>649</v>
+      <c r="B419" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C419" s="30" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B420" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="C420" s="29" t="s">
-        <v>651</v>
+      <c r="B420" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="C420" s="30" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B421" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="C421" s="29" t="s">
-        <v>653</v>
+      <c r="B421" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="C421" s="30" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B422" s="29" t="s">
-        <v>654</v>
-      </c>
-      <c r="C422" s="29" t="s">
-        <v>655</v>
+      <c r="B422" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="C422" s="30" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B423" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="C423" s="29" t="s">
-        <v>657</v>
+      <c r="B423" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="C423" s="30" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B424" s="29" t="s">
-        <v>658</v>
-      </c>
-      <c r="C424" s="29" t="s">
-        <v>659</v>
+      <c r="B424" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="C424" s="30" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B425" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="C425" s="29" t="s">
-        <v>661</v>
+      <c r="B425" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="C425" s="30" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B426" s="29" t="s">
-        <v>662</v>
-      </c>
-      <c r="C426" s="29" t="s">
-        <v>663</v>
+      <c r="B426" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="C426" s="30" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B427" s="29" t="s">
-        <v>664</v>
-      </c>
-      <c r="C427" s="29" t="s">
-        <v>665</v>
+      <c r="B427" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C427" s="30" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B428" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="C428" s="29" t="s">
-        <v>667</v>
+      <c r="B428" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="C428" s="30" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B429" s="29" t="s">
-        <v>668</v>
-      </c>
-      <c r="C429" s="29" t="s">
-        <v>669</v>
+      <c r="B429" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="C429" s="30" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B430" s="29" t="s">
-        <v>670</v>
-      </c>
-      <c r="C430" s="29" t="s">
-        <v>671</v>
+      <c r="B430" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="C430" s="30" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B431" s="29" t="s">
-        <v>672</v>
-      </c>
-      <c r="C431" s="29" t="s">
-        <v>673</v>
+      <c r="B431" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="C431" s="30" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B432" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="C432" s="29" t="s">
-        <v>675</v>
+      <c r="B432" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="C432" s="30" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B433" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="C433" s="29" t="s">
-        <v>677</v>
+      <c r="B433" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="C433" s="30" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B434" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="C434" s="29" t="s">
-        <v>679</v>
+      <c r="B434" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="C434" s="30" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B435" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="C435" s="29" t="s">
-        <v>681</v>
+      <c r="B435" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="C435" s="30" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B436" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="C436" s="29" t="s">
-        <v>683</v>
+      <c r="B436" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="C436" s="30" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B437" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="C437" s="29" t="s">
-        <v>685</v>
+      <c r="B437" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="C437" s="30" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B438" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="C438" s="29" t="s">
-        <v>687</v>
+      <c r="B438" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="C438" s="30" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B439" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="C439" s="29" t="s">
-        <v>689</v>
+      <c r="B439" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="C439" s="30" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B440" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="C440" s="29" t="s">
-        <v>691</v>
+      <c r="B440" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="C440" s="30" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B441" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="C441" s="29" t="s">
-        <v>693</v>
+      <c r="B441" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="C441" s="30" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B442" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="C442" s="29" t="s">
-        <v>695</v>
+      <c r="B442" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="C442" s="30" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B443" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="C443" s="29" t="s">
-        <v>697</v>
+      <c r="B443" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="C443" s="30" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B444" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="C444" s="29" t="s">
-        <v>699</v>
+      <c r="B444" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="C444" s="30" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B445" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="C445" s="29" t="s">
-        <v>701</v>
+      <c r="B445" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="C445" s="30" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B446" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="C446" s="29" t="s">
-        <v>703</v>
+      <c r="B446" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="C446" s="30" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B447" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="C447" s="29" t="s">
-        <v>705</v>
+      <c r="B447" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="C447" s="30" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B448" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="C448" s="29" t="s">
-        <v>707</v>
+      <c r="B448" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="C448" s="30" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B449" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="C449" s="29" t="s">
-        <v>709</v>
+      <c r="B449" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="C449" s="30" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B450" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="C450" s="29" t="s">
-        <v>711</v>
+      <c r="A450" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B450" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="C450" s="30" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B451" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="C451" s="29" t="s">
-        <v>713</v>
+      <c r="A451" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B451" s="30" t="s">
+        <v>714</v>
+      </c>
+      <c r="C451" s="30" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B452" s="29" t="s">
-        <v>714</v>
-      </c>
-      <c r="C452" s="29" t="s">
-        <v>715</v>
+      <c r="A452" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B452" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="C452" s="30" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B453" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="C453" s="29" t="s">
-        <v>717</v>
+      <c r="A453" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B453" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="C453" s="30" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B454" s="29" t="s">
-        <v>718</v>
-      </c>
-      <c r="C454" s="29" t="s">
-        <v>719</v>
+      <c r="A454" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B454" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="C454" s="30" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B455" s="29" t="s">
-        <v>720</v>
-      </c>
-      <c r="C455" s="29" t="s">
-        <v>721</v>
+      <c r="A455" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B455" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="C455" s="30" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B456" s="29" t="s">
-        <v>722</v>
-      </c>
-      <c r="C456" s="29" t="s">
-        <v>723</v>
+      <c r="A456" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B456" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="C456" s="30" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B457" s="29" t="s">
-        <v>724</v>
-      </c>
-      <c r="C457" s="29" t="s">
-        <v>725</v>
+      <c r="A457" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B457" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="C457" s="30" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B458" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="C458" s="29" t="s">
-        <v>727</v>
+      <c r="A458" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B458" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="C458" s="30" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B459" s="29" t="s">
-        <v>728</v>
-      </c>
-      <c r="C459" s="29" t="s">
-        <v>729</v>
+      <c r="A459" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B459" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="C459" s="30" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B460" s="29" t="s">
-        <v>730</v>
-      </c>
-      <c r="C460" s="29" t="s">
-        <v>731</v>
+      <c r="A460" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B460" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="C460" s="30" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B461" s="29" t="s">
-        <v>732</v>
-      </c>
-      <c r="C461" s="29" t="s">
-        <v>733</v>
+      <c r="A461" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B461" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="C461" s="30" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B462" s="29" t="s">
-        <v>734</v>
-      </c>
-      <c r="C462" s="29" t="s">
-        <v>735</v>
+      <c r="A462" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B462" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="C462" s="30" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B463" s="29" t="s">
-        <v>736</v>
-      </c>
-      <c r="C463" s="29" t="s">
-        <v>737</v>
+      <c r="A463" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B463" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="C463" s="30" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B464" s="29" t="s">
-        <v>738</v>
-      </c>
-      <c r="C464" s="29" t="s">
-        <v>739</v>
+      <c r="A464" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B464" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="C464" s="30" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B465" s="29" t="s">
-        <v>740</v>
-      </c>
-      <c r="C465" s="29" t="s">
-        <v>741</v>
+      <c r="A465" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B465" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="C465" s="30" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B466" s="29" t="s">
-        <v>742</v>
-      </c>
-      <c r="C466" s="29" t="s">
-        <v>743</v>
+      <c r="A466" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B466" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="C466" s="30" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B467" s="29" t="s">
-        <v>744</v>
-      </c>
-      <c r="C467" s="29" t="s">
-        <v>745</v>
+      <c r="A467" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B467" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="C467" s="30" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B468" s="29" t="s">
-        <v>746</v>
-      </c>
-      <c r="C468" s="29" t="s">
-        <v>747</v>
+      <c r="A468" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B468" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="C468" s="30" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B469" s="29" t="s">
-        <v>748</v>
-      </c>
-      <c r="C469" s="29" t="s">
-        <v>749</v>
+      <c r="A469" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B469" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="C469" s="30" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B470" s="29" t="s">
-        <v>750</v>
-      </c>
-      <c r="C470" s="29" t="s">
-        <v>751</v>
+      <c r="A470" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B470" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="C470" s="30" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B471" s="29" t="s">
-        <v>752</v>
-      </c>
-      <c r="C471" s="29" t="s">
-        <v>753</v>
+      <c r="A471" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B471" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="C471" s="30" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B472" s="29" t="s">
-        <v>754</v>
-      </c>
-      <c r="C472" s="29" t="s">
-        <v>755</v>
+      <c r="A472" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B472" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="C472" s="30" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B473" s="29" t="s">
-        <v>756</v>
-      </c>
-      <c r="C473" s="29" t="s">
-        <v>757</v>
+      <c r="A473" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B473" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="C473" s="30" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B474" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="C474" s="29" t="s">
-        <v>759</v>
+      <c r="B474" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="C474" s="30" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B475" s="29" t="s">
-        <v>760</v>
-      </c>
-      <c r="C475" s="29" t="s">
-        <v>761</v>
+      <c r="B475" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C475" s="30" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B476" s="29" t="s">
-        <v>762</v>
-      </c>
-      <c r="C476" s="29" t="s">
-        <v>763</v>
+      <c r="A476" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B476" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="C476" s="30" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B477" s="29" t="s">
-        <v>764</v>
-      </c>
-      <c r="C477" s="29" t="s">
-        <v>765</v>
+      <c r="B477" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="C477" s="30" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B478" s="29" t="s">
-        <v>766</v>
-      </c>
-      <c r="C478" s="29" t="s">
-        <v>767</v>
+      <c r="B478" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="C478" s="30" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B479" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="C479" s="29" t="s">
-        <v>769</v>
+      <c r="B479" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="C479" s="30" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B480" s="29" t="s">
-        <v>770</v>
-      </c>
-      <c r="C480" s="29" t="s">
-        <v>771</v>
+      <c r="B480" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="C480" s="30" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/data/common/excel/public_category_manual.xlsx
+++ b/data/common/excel/public_category_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D326FE1-780D-4A73-9D99-FCA86D7EAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAD5BD5-C412-4C99-936E-2F55750F153A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="411">
   <si>
     <t>ALTAVOCES Y AURICULARES</t>
   </si>
@@ -1842,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B511"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD501"/>
+    <sheetView tabSelected="1" topLeftCell="A501" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A512" sqref="A512:XFD512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5864,6 +5864,86 @@
         <v>405</v>
       </c>
     </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B502" s="1">
+        <v>2120117</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B503" s="1">
+        <v>118835</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B504" s="1">
+        <v>11883</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B505" s="1">
+        <v>23394</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B506" s="1">
+        <v>23397</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B507" s="1">
+        <v>1188331</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B508" s="1">
+        <v>11916</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B509" s="1">
+        <v>23395</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B510" s="1">
+        <v>23396</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B511" s="1">
+        <v>11911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
